--- a/data/worldometer global/20-05-30 Global wom raw data.xlsx
+++ b/data/worldometer global/20-05-30 Global wom raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/worldometer global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{DB3AC674-2068-4AF0-B253-DAC460BD95C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C03DA44-45EB-4D68-B090-AA14954990BF}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{DB3AC674-2068-4AF0-B253-DAC460BD95C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A0B957D-5E54-41EB-8A4B-E595CEB35F0C}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="-19275" windowWidth="26970" windowHeight="16830" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
+    <workbookView xWindow="60" yWindow="640" windowWidth="26970" windowHeight="16830" activeTab="1" xr2:uid="{8E47FD39-2E4A-43A8-AC2E-E8221A8D475B}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -20719,429 +20719,429 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{4EE8DEA5-99A5-4FDB-8235-57B84BFCB488}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{6743DA0E-9FFD-47B4-B031-ED3FEDDAA1C8}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{4173FC55-DB30-4D39-84CE-5AB5E3027E2D}"/>
-    <hyperlink ref="N4" r:id="rId4" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{24CC074A-5AD9-4768-8EC3-791097A5162E}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{C89C0276-4B22-4905-8AEF-21A3D68F2ADC}"/>
-    <hyperlink ref="N5" r:id="rId6" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{224C4CD8-875B-4827-A1EC-AA3019725D38}"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{9BF3C11A-E6C9-486E-ACED-2C967D2DF541}"/>
-    <hyperlink ref="N6" r:id="rId8" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{1930B750-2367-4D8B-A821-45BADEA40CE4}"/>
-    <hyperlink ref="B7" r:id="rId9" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{1858BD0B-79C2-4F9F-8A1E-C8130C6EE5FE}"/>
-    <hyperlink ref="N7" r:id="rId10" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{52357C3D-E0DA-46CE-A84B-14CBF3742A7B}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A7B50739-AAB3-4CFD-99D9-946C2588E5E2}"/>
-    <hyperlink ref="N8" r:id="rId12" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{F303976C-BE67-4471-8918-D90B6AFDC3D3}"/>
-    <hyperlink ref="B9" r:id="rId13" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{A2C0EC90-1445-4612-8D03-53D90352461D}"/>
-    <hyperlink ref="N9" r:id="rId14" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{31074F3A-A206-4B5C-B692-44847CB2B6F3}"/>
-    <hyperlink ref="B10" r:id="rId15" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{44CB0276-9B29-4650-A8AD-9B508AE6AF16}"/>
-    <hyperlink ref="N10" r:id="rId16" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{089A225D-D054-450C-857E-6DF91DBF19D5}"/>
-    <hyperlink ref="B11" r:id="rId17" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{86E991F3-F5F2-41E0-885D-779977358001}"/>
-    <hyperlink ref="N11" r:id="rId18" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{C4860DF2-841E-4CB6-BE8F-0B470EAFB151}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{7EAF6E66-7911-46CB-8199-EE5EC3BEAD63}"/>
-    <hyperlink ref="N12" r:id="rId20" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{26DEFD04-AA0D-41E1-A24E-853CB89BE27E}"/>
-    <hyperlink ref="B13" r:id="rId21" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{BC324BD0-E423-4CB0-B817-B95610FC5258}"/>
-    <hyperlink ref="N13" r:id="rId22" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{3631C845-5E78-43D6-8C6D-5037E54B815E}"/>
-    <hyperlink ref="B14" r:id="rId23" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{31E3437C-8090-4834-9C25-797BB8D615CE}"/>
-    <hyperlink ref="N14" r:id="rId24" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{A4F30A37-1869-4D9D-88E4-611E3FD830C2}"/>
-    <hyperlink ref="B15" r:id="rId25" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{2A7044B1-8C0A-456F-A2E3-058395088F2C}"/>
-    <hyperlink ref="N15" r:id="rId26" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{8AF44D23-163F-430A-8E28-ABF939FF06D3}"/>
-    <hyperlink ref="B16" r:id="rId27" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{7DC83DBF-E300-4D02-AECD-6B6D7443F00E}"/>
-    <hyperlink ref="N16" r:id="rId28" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{7709CCEE-4C2A-4F94-9327-FFB15E9D936D}"/>
-    <hyperlink ref="B17" r:id="rId29" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{DC5551E4-1183-4A38-88BD-A97390BA7DD8}"/>
-    <hyperlink ref="N17" r:id="rId30" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{DEB69BE4-AE30-4223-A1BD-0A963F1690D5}"/>
-    <hyperlink ref="B18" r:id="rId31" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{6823D427-AC4E-4199-8A05-1EC72F03BA5A}"/>
-    <hyperlink ref="B19" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{EF97E617-DB04-4BD7-A96B-76ED7013AAE6}"/>
-    <hyperlink ref="N19" r:id="rId33" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{F17C420D-2957-40AC-8BFE-234A31152106}"/>
-    <hyperlink ref="B20" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{40466E33-FA66-4596-9292-2F8225F75D92}"/>
-    <hyperlink ref="N20" r:id="rId35" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{8F80DCE6-E3BB-4F54-A424-772FBCD2215F}"/>
-    <hyperlink ref="B21" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{0FC814D5-04E8-47A6-86BA-78B08719DAB0}"/>
-    <hyperlink ref="N21" r:id="rId37" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{9951A35D-E2BD-41B8-825F-7D79BAB2AF31}"/>
-    <hyperlink ref="B22" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{F76BB22B-5FA8-4291-A1A1-B819887A79DC}"/>
-    <hyperlink ref="N22" r:id="rId39" display="https://www.worldometers.info/world-population/qatar-population/" xr:uid="{8426445C-05F0-4C5B-936E-CE71CBEB888B}"/>
-    <hyperlink ref="B23" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{9D6D3B7E-5384-4956-AA0E-415D6A44C47F}"/>
-    <hyperlink ref="N23" r:id="rId41" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{DCC4303D-35D6-4694-835B-7D24BB6DAD61}"/>
-    <hyperlink ref="B24" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{D5445A7D-A97A-4C78-9DAE-54E0ACE97B3C}"/>
-    <hyperlink ref="N24" r:id="rId43" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{3C7ABFAA-CBEF-4147-B8D0-94D4377EDDF0}"/>
-    <hyperlink ref="B25" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{E4F087BC-83CC-40E9-B6F1-F6E2EFF54486}"/>
-    <hyperlink ref="N25" r:id="rId45" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{35DA7F74-368C-4E16-83C7-B65BC7096EE1}"/>
-    <hyperlink ref="B26" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{98A663EE-24F0-4F70-BA36-9E5B79907083}"/>
-    <hyperlink ref="N26" r:id="rId47" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{0E82A731-FFD4-4E11-A840-D17CC944F11F}"/>
-    <hyperlink ref="B27" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{EB54A5ED-00A7-4205-AFC5-081139009037}"/>
-    <hyperlink ref="N27" r:id="rId49" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{8A4CE06F-FDC7-4FA9-9CB8-DEEBD4FC99E4}"/>
-    <hyperlink ref="B28" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{35126A26-E552-4DBA-A064-559A97856D36}"/>
-    <hyperlink ref="N28" r:id="rId51" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{B8B12521-192A-4D27-BBC5-6C53D493C24E}"/>
-    <hyperlink ref="B29" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{4CD1A5BA-75DC-4D8C-83E1-4FB2F81378F6}"/>
-    <hyperlink ref="N29" r:id="rId53" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{FF1FC31D-6FF1-4CFC-AE0D-3DA4BFBAF58D}"/>
-    <hyperlink ref="B30" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{F9B3C850-5719-4881-9142-A9FACD803057}"/>
-    <hyperlink ref="N30" r:id="rId55" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{86BB524E-1459-4215-8BE9-FE51C343AE71}"/>
-    <hyperlink ref="B31" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{BC4BF5B9-F688-4495-9859-EF1EA8F91CE1}"/>
-    <hyperlink ref="N31" r:id="rId57" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{D5ADC42A-1BE4-4267-88C6-EA79AB974782}"/>
-    <hyperlink ref="B32" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{076F0643-3AC8-4A8F-AFF3-64F21D8240DF}"/>
-    <hyperlink ref="N32" r:id="rId59" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{93201C92-C65A-4730-AAF5-67BDB43F9B4C}"/>
-    <hyperlink ref="B33" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{175CE45B-1A7F-48C5-B21A-9A6928F56718}"/>
-    <hyperlink ref="N33" r:id="rId61" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{EF82D7FF-2384-4098-AE82-9CA840775332}"/>
-    <hyperlink ref="B34" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{4AC6D421-8B89-4C9F-9A93-AA3CDD447D1C}"/>
-    <hyperlink ref="N34" r:id="rId63" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{900F862F-EA3F-46EB-A4BB-8AA369A40F5C}"/>
-    <hyperlink ref="B35" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{A3D0D005-A61A-4164-93FB-2FF34CDF5DE1}"/>
-    <hyperlink ref="N35" r:id="rId65" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{3C37C578-7C40-49C7-B043-470E8859941B}"/>
-    <hyperlink ref="B36" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{D43B9A07-852A-44D6-B2D0-7BE94665B009}"/>
-    <hyperlink ref="N36" r:id="rId67" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{6C054A0A-545C-4C5A-AFBA-D6D07CEBE5CB}"/>
-    <hyperlink ref="B37" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{3D8C65CC-98BD-453A-B4EE-24A6C02ACB47}"/>
-    <hyperlink ref="N37" r:id="rId69" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{8713C484-4706-44AF-8920-3F13AA7373FC}"/>
-    <hyperlink ref="B38" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{46371482-1C68-4D9D-9686-5CA1A9D77C5E}"/>
-    <hyperlink ref="N38" r:id="rId71" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{178828CE-58E9-49CB-A34A-CC025C5F11B2}"/>
-    <hyperlink ref="B39" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{435FF4E1-4390-4071-B2E1-A2F0505EA089}"/>
-    <hyperlink ref="N39" r:id="rId73" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{44DE24E5-59FA-4F0A-B434-DDFEA187CD7A}"/>
-    <hyperlink ref="B40" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{7EC35508-DF30-41B4-9396-BE85B62652BD}"/>
-    <hyperlink ref="N40" r:id="rId75" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{8E71935B-0081-4054-A565-CB0344E31622}"/>
-    <hyperlink ref="B41" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{DBEB8EB6-6487-47DF-948D-2240672AFDE5}"/>
-    <hyperlink ref="B42" r:id="rId77" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{65BA092D-E2D7-452C-97B9-F061176837BB}"/>
-    <hyperlink ref="N42" r:id="rId78" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{78C49B8D-919E-4182-ADC4-99FF1C709A64}"/>
-    <hyperlink ref="B43" r:id="rId79" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{8999618A-B83D-4F0E-A175-B18FC050FB1D}"/>
-    <hyperlink ref="N43" r:id="rId80" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{7F3B1E06-7F0A-478C-B202-C18FC7A83C05}"/>
-    <hyperlink ref="B44" r:id="rId81" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{47EE64F8-817D-403D-9C60-02E980C8A358}"/>
-    <hyperlink ref="N44" r:id="rId82" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{7298071C-A594-4C59-835C-84020960524C}"/>
-    <hyperlink ref="B45" r:id="rId83" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{4DF3CDF5-3D54-4924-B663-DAD114BF4B53}"/>
-    <hyperlink ref="N45" r:id="rId84" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{BC134283-58B2-42AB-B768-B6C106F39BB4}"/>
-    <hyperlink ref="B46" r:id="rId85" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{26435684-1413-4CD2-B9DE-9EAAF4F0C792}"/>
-    <hyperlink ref="N46" r:id="rId86" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{AD83A7A6-70EF-498B-9195-78F69B9A4B40}"/>
-    <hyperlink ref="B47" r:id="rId87" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{5FEDA117-653D-42CF-963E-F997174DCD4D}"/>
-    <hyperlink ref="N47" r:id="rId88" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{3AA25B68-3033-4510-8091-9AB3FFDC92AC}"/>
-    <hyperlink ref="B48" r:id="rId89" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{739C77BF-B1B9-4817-9EF1-59656EC441F1}"/>
-    <hyperlink ref="N48" r:id="rId90" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{55D9AFC7-26A7-40C7-8EE1-8858417E3807}"/>
-    <hyperlink ref="B49" r:id="rId91" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{97CE90BA-8708-4598-A9BB-6531E2BDE64D}"/>
-    <hyperlink ref="N49" r:id="rId92" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{33D4DDE3-DB39-4796-8296-BB38AAC4C1E1}"/>
-    <hyperlink ref="B50" r:id="rId93" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{220FBDBC-B5AA-44E9-B5F0-9E50D8F218D9}"/>
-    <hyperlink ref="N50" r:id="rId94" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{93F1496D-A4A5-4A64-9B4F-565D3BC38405}"/>
-    <hyperlink ref="B51" r:id="rId95" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{E2D4F172-A034-439A-A3A8-ACE56F9323E5}"/>
-    <hyperlink ref="N51" r:id="rId96" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{FBA555EE-538E-4CF9-B493-6EBE4781AE16}"/>
-    <hyperlink ref="B52" r:id="rId97" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{2AAAB88E-8630-4CF9-9555-79011FFB04A3}"/>
-    <hyperlink ref="N52" r:id="rId98" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{132963C2-9BF6-453B-BA43-F047793DF016}"/>
-    <hyperlink ref="B53" r:id="rId99" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{11BFD0B7-7E52-4145-992F-AB313AD60803}"/>
-    <hyperlink ref="N53" r:id="rId100" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{F52D967D-83CC-43D1-84C5-5FE2C7AA69CF}"/>
-    <hyperlink ref="B54" r:id="rId101" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{A2ED73B3-945C-49DA-9A65-6CF0D887287F}"/>
-    <hyperlink ref="N54" r:id="rId102" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{644BA9E3-5C7F-4EB7-AB42-1B00EE37D487}"/>
-    <hyperlink ref="B55" r:id="rId103" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{3BD133CF-0F4D-46A0-A2E8-54B1039C0214}"/>
-    <hyperlink ref="N55" r:id="rId104" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{B04E845E-12D7-40D7-9CF2-159740F85474}"/>
-    <hyperlink ref="B56" r:id="rId105" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{8D2FA71E-DC7B-4B6C-A72B-8DA66CF97D39}"/>
-    <hyperlink ref="N56" r:id="rId106" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{4A69BE6E-0B64-4DFE-A90B-5A5E63CA4F52}"/>
-    <hyperlink ref="B57" r:id="rId107" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{FBFEF4AF-075D-4FFE-8B1D-E397A76A1F8B}"/>
-    <hyperlink ref="N57" r:id="rId108" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{7509D27E-3DC2-40A2-8C38-4B0A5469A6F7}"/>
-    <hyperlink ref="B58" r:id="rId109" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{46BB934D-34E9-4BC7-B229-96CA26F5C7A5}"/>
-    <hyperlink ref="N58" r:id="rId110" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{27FAF440-3593-4436-B63D-0B90C281753B}"/>
-    <hyperlink ref="B59" r:id="rId111" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{9B514F7A-519C-4D5D-8A86-543EE10FF09B}"/>
-    <hyperlink ref="N59" r:id="rId112" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{DCE9F691-E560-4A2A-925D-3CEB45987988}"/>
-    <hyperlink ref="B60" r:id="rId113" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{A9EE0D88-358F-47DC-B3CD-49A4F80EA384}"/>
-    <hyperlink ref="N60" r:id="rId114" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{CE20FDB4-1106-43DA-B0D8-8B46D2ACD15B}"/>
-    <hyperlink ref="B61" r:id="rId115" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{2E1E29D4-D10A-49B0-9E37-7C589CEE17D7}"/>
-    <hyperlink ref="N61" r:id="rId116" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{56A83650-D4AF-4830-8D77-F64926808ECB}"/>
-    <hyperlink ref="B62" r:id="rId117" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{C55EEB60-16CF-4712-B1B9-4E9750BF0442}"/>
-    <hyperlink ref="N62" r:id="rId118" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{1DC6D262-7EE3-4244-AC23-A58507123F23}"/>
-    <hyperlink ref="B63" r:id="rId119" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{BB72964C-172C-4544-A720-8C24929788B9}"/>
-    <hyperlink ref="N63" r:id="rId120" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{CBF5F5A4-3509-4F92-BEF0-31CED4864904}"/>
-    <hyperlink ref="B64" r:id="rId121" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{DD3E8EEE-1ECC-4FAE-85DE-B04C3D9767A5}"/>
-    <hyperlink ref="N64" r:id="rId122" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{610DB63B-89EE-48EF-86C1-AEC4DE7B64E1}"/>
-    <hyperlink ref="B65" r:id="rId123" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{712FAEFB-1708-4CAB-A26F-A6779A559A06}"/>
-    <hyperlink ref="N65" r:id="rId124" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{4A94A37E-718F-43CD-A5AB-E0AB27594653}"/>
-    <hyperlink ref="B66" r:id="rId125" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{16FEF8B6-85F1-493D-B84F-E061F322C5D5}"/>
-    <hyperlink ref="N66" r:id="rId126" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{B67402D7-FCC4-4FEA-A88F-180121698B3C}"/>
-    <hyperlink ref="B67" r:id="rId127" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{6A235510-DC32-4609-A0D9-FAF4DA70AE2A}"/>
-    <hyperlink ref="N67" r:id="rId128" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{195FDED5-F7BF-48E0-B6C0-DD7A424C2D27}"/>
-    <hyperlink ref="B68" r:id="rId129" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{A1110A7D-FB3D-495D-BD73-0CD37DECC828}"/>
-    <hyperlink ref="N68" r:id="rId130" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{B1816400-F875-43C0-BA4C-8FF0A972A34D}"/>
-    <hyperlink ref="B69" r:id="rId131" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{E7CE3887-2D77-4860-A02E-7F7702248B06}"/>
-    <hyperlink ref="N69" r:id="rId132" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{DCF68173-B1B1-4C2A-9EAF-876A2A67D1AB}"/>
-    <hyperlink ref="B70" r:id="rId133" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{9AF7781E-8460-423E-A785-AFCFE4D23820}"/>
-    <hyperlink ref="N70" r:id="rId134" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{8BA0992F-B201-4890-9145-8E9EF5C9F37C}"/>
-    <hyperlink ref="B71" r:id="rId135" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{C1A0206D-EEC8-485D-AD36-457531D4081C}"/>
-    <hyperlink ref="N71" r:id="rId136" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{09295A65-D44E-41D8-A4D0-BD04121F71D1}"/>
-    <hyperlink ref="B72" r:id="rId137" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{6434D54D-32A1-4BD3-A2B8-058DB3C1DECB}"/>
-    <hyperlink ref="N72" r:id="rId138" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{18D24966-20AE-467E-9D3F-0FBFE2B0D8D9}"/>
-    <hyperlink ref="B73" r:id="rId139" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{DF96334C-5D49-45E2-BC6D-BFADA21E20DD}"/>
-    <hyperlink ref="N73" r:id="rId140" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{5A3B7EB3-DB75-4D1C-93C3-A4159CD8A083}"/>
-    <hyperlink ref="B74" r:id="rId141" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{F14ABE7E-ADF2-446F-A77F-BB07F020C3E4}"/>
-    <hyperlink ref="N74" r:id="rId142" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{4F37BA49-314A-4933-A2F9-036279BE506A}"/>
-    <hyperlink ref="B75" r:id="rId143" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{FB2CA167-7BB8-4FE0-B5B3-A5391F1C7EBD}"/>
-    <hyperlink ref="N75" r:id="rId144" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{8CFD07A6-CF92-4326-963F-40C03DE867F1}"/>
-    <hyperlink ref="B76" r:id="rId145" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{84758150-F3DE-4FB4-A95A-86419806A63E}"/>
-    <hyperlink ref="N76" r:id="rId146" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{EAF89B90-EF34-4B93-9D92-FFA872231573}"/>
-    <hyperlink ref="B77" r:id="rId147" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{C67F0D45-306E-467A-A893-7D0874F996E2}"/>
-    <hyperlink ref="N77" r:id="rId148" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{1A5759BA-B505-4276-93B7-B933398AA455}"/>
-    <hyperlink ref="B78" r:id="rId149" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{18DD61EF-8389-4FDA-A822-0C6804616673}"/>
-    <hyperlink ref="N78" r:id="rId150" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{061EFCBC-B027-4000-AEDE-D5DE6BA27AF7}"/>
-    <hyperlink ref="B79" r:id="rId151" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{65D9DFA4-77D9-4C7C-9EFF-1A449B2F4327}"/>
-    <hyperlink ref="N79" r:id="rId152" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{4938429E-F4E0-45E3-BB02-0D45DE0F6BA3}"/>
-    <hyperlink ref="B80" r:id="rId153" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{2627D273-8C24-49F8-91B6-86D34F7FFBD5}"/>
-    <hyperlink ref="N80" r:id="rId154" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{02023E35-AF26-4C8D-AD2A-C1B0AC81E040}"/>
-    <hyperlink ref="B81" r:id="rId155" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{B5F83FC1-ACB2-4CA3-A83B-6F92A086DD87}"/>
-    <hyperlink ref="N81" r:id="rId156" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{B5A58C3C-AC03-4FA7-BCF4-2160CC66FE95}"/>
-    <hyperlink ref="B82" r:id="rId157" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{87D42CDB-5E0B-4EDD-A294-209FB6901DEB}"/>
-    <hyperlink ref="N82" r:id="rId158" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{EDC2BE25-5A7F-4239-929A-C449613E132A}"/>
-    <hyperlink ref="B83" r:id="rId159" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{37206A2A-1B93-434E-9387-202EF4071AA9}"/>
-    <hyperlink ref="N83" r:id="rId160" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{40AB4B4B-EE34-4C23-BB54-6FAB9FFD4646}"/>
-    <hyperlink ref="B84" r:id="rId161" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{BA44E4F6-34FC-4B36-AF7A-8DB2F050D210}"/>
-    <hyperlink ref="N84" r:id="rId162" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{88282BD2-5B41-4CB0-9C14-010562CF11F2}"/>
-    <hyperlink ref="B85" r:id="rId163" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{31E03241-32F7-4294-AB96-846A377ACCA6}"/>
-    <hyperlink ref="N85" r:id="rId164" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{A762AE16-CF82-4B7A-8357-AEBA9901A5D2}"/>
-    <hyperlink ref="B86" r:id="rId165" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{A5971D8D-7DEA-4DCD-9F21-9763125BBC8F}"/>
-    <hyperlink ref="N86" r:id="rId166" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{6C4A1095-ADA4-4054-9D10-5A8393C66296}"/>
-    <hyperlink ref="B87" r:id="rId167" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{7CF4CE77-C215-4BFD-B617-D410387F6694}"/>
-    <hyperlink ref="N87" r:id="rId168" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{B620B644-0E14-45DD-804D-FD5A8D752163}"/>
-    <hyperlink ref="B88" r:id="rId169" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{6B2F7E66-7EB4-4F0D-A6DA-53A3BDC82299}"/>
-    <hyperlink ref="N88" r:id="rId170" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{636B160C-89B2-450B-A043-82B5606BD611}"/>
-    <hyperlink ref="B89" r:id="rId171" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{D7B6C140-CD84-402A-8781-218840816EFA}"/>
-    <hyperlink ref="N89" r:id="rId172" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{BC40126F-AE80-4C3B-94E3-BAA04225283D}"/>
-    <hyperlink ref="B90" r:id="rId173" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{FC772F34-DEBC-42A7-B372-D39BC74DD30C}"/>
-    <hyperlink ref="N90" r:id="rId174" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{C9507368-1E24-4229-9FC7-FDDBE896D0EB}"/>
-    <hyperlink ref="B91" r:id="rId175" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{6FD9F548-D2CA-4EA3-B7FC-D1293E2C9C55}"/>
-    <hyperlink ref="N91" r:id="rId176" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{20BE01D9-CCE2-4B0A-B909-685B03F82E2E}"/>
-    <hyperlink ref="B92" r:id="rId177" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{771A12E7-B163-45A8-8888-F204614D32E2}"/>
-    <hyperlink ref="N92" r:id="rId178" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{E5426FC8-792F-4DAE-A092-5A5595A01882}"/>
-    <hyperlink ref="B93" r:id="rId179" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{CA90BB19-E9E1-4E59-9DF1-496C2E3A598F}"/>
-    <hyperlink ref="N93" r:id="rId180" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{1CB1801B-17B6-4C5E-ACAF-D5E88B79B345}"/>
-    <hyperlink ref="B94" r:id="rId181" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{3BD75609-42D1-43B9-8B40-DD18C8273111}"/>
-    <hyperlink ref="N94" r:id="rId182" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{A2C92D12-4CE0-437F-B222-5E1D1C4C3A8A}"/>
-    <hyperlink ref="B95" r:id="rId183" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{B0EB4212-B090-410A-BC0D-075EFE7F0F95}"/>
-    <hyperlink ref="N95" r:id="rId184" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{289BD308-BDF7-4850-8C8C-EFF48FB7EF9F}"/>
-    <hyperlink ref="B96" r:id="rId185" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{DCCCFA6D-0CDE-4EF6-BA72-68643C8A5F5E}"/>
-    <hyperlink ref="N96" r:id="rId186" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{6AC099EB-595C-4B71-B606-298BE02C7642}"/>
-    <hyperlink ref="B97" r:id="rId187" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{91FE8A1A-4A03-4F89-8FAA-4AE966145BCD}"/>
-    <hyperlink ref="N97" r:id="rId188" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{F3EF628C-F26B-44EE-BE66-D04BE9100444}"/>
-    <hyperlink ref="B98" r:id="rId189" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{554A0334-9A2B-4F9C-B7DE-FA15F29E6492}"/>
-    <hyperlink ref="N98" r:id="rId190" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{C81FE094-2616-41DA-82A3-2902C37797BC}"/>
-    <hyperlink ref="B99" r:id="rId191" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{EB2660D5-41A1-4D7D-B22F-2648FDEB841A}"/>
-    <hyperlink ref="N99" r:id="rId192" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{95292C3F-7994-4859-A527-AEA3E5B22EDB}"/>
-    <hyperlink ref="B100" r:id="rId193" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{78E5EBD9-F739-4D5C-8D75-980A7D1E2CE7}"/>
-    <hyperlink ref="N100" r:id="rId194" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{65822FC3-B948-4C0A-9119-320ACD914AA5}"/>
-    <hyperlink ref="B101" r:id="rId195" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{8EAFA199-AD18-49CD-8BFE-A4EE6E2E41BE}"/>
-    <hyperlink ref="N101" r:id="rId196" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{351B00D6-0717-46C0-A154-4FD7D827F8D8}"/>
-    <hyperlink ref="B102" r:id="rId197" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{3B8669FD-A1F2-4453-87E8-C2F14A6FF7F5}"/>
-    <hyperlink ref="B103" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{3657EE86-9216-4904-A09C-0022FE2909F3}"/>
-    <hyperlink ref="N103" r:id="rId199" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{67061948-60A6-4D4F-9D40-707F6BFE750E}"/>
-    <hyperlink ref="B104" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{9A1F87F6-542B-45AC-8293-11B7FEE89F4C}"/>
-    <hyperlink ref="N104" r:id="rId201" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{0BBD26FD-4381-4E5E-A702-18D80A261535}"/>
-    <hyperlink ref="B105" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{E8790597-54EE-4E36-8C42-E59A39DA2A2A}"/>
-    <hyperlink ref="N105" r:id="rId203" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{30427E5B-630E-4D60-9A05-0347DC0FEDC9}"/>
-    <hyperlink ref="B106" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{23C24EF3-F09F-464D-AA0B-5B01F9923DD2}"/>
-    <hyperlink ref="N106" r:id="rId205" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{5A4B0A61-8614-4A06-ADB9-03047CDEF8D8}"/>
-    <hyperlink ref="B107" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{8CBA62D9-B522-470D-BA29-D8CE16EDA5F6}"/>
-    <hyperlink ref="N107" r:id="rId207" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{96AD314D-6498-44C0-A707-44D4A0F6CC8C}"/>
-    <hyperlink ref="B108" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{5E6DAB6B-8150-4BDF-A048-55A4318C94C9}"/>
-    <hyperlink ref="N108" r:id="rId209" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{607B2AB7-CC18-423C-9765-2A0C91CBA06B}"/>
-    <hyperlink ref="B109" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{BC43B17B-CDEF-45F4-9957-BF28C7D9CB69}"/>
-    <hyperlink ref="N109" r:id="rId211" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{D85AA0B3-9E69-471B-9C2B-966C8698B0D9}"/>
+    <hyperlink ref="N217" r:id="rId1" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{2EEECAB5-5846-4AAC-A66A-C105E24FBCA1}"/>
+    <hyperlink ref="B217" r:id="rId2" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{543FF9CA-6B52-4D21-94F8-F794A5325846}"/>
+    <hyperlink ref="N216" r:id="rId3" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{3C14385C-BF19-4D97-A407-85EF2DA7E71C}"/>
+    <hyperlink ref="B216" r:id="rId4" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{32C4B0A5-E5B7-4030-9368-D01791713089}"/>
+    <hyperlink ref="N215" r:id="rId5" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{1224EAD4-024A-4CD5-B07E-ADF569AA4142}"/>
+    <hyperlink ref="B215" r:id="rId6" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{88D58839-EECC-4234-A834-A46D7E514A15}"/>
+    <hyperlink ref="N214" r:id="rId7" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{3D04F14B-8DB8-4D41-910E-9FA8AF6A3BE2}"/>
+    <hyperlink ref="B214" r:id="rId8" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{D13477ED-7888-4BA0-B6A3-227D7BCD86AB}"/>
+    <hyperlink ref="N213" r:id="rId9" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{D39CE065-4ED6-454A-8FE0-75A351A0B36C}"/>
+    <hyperlink ref="B213" r:id="rId10" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{414C26ED-412F-426E-8178-A0C59B46B921}"/>
+    <hyperlink ref="N212" r:id="rId11" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{6BABC2D2-F636-4BB3-89EA-9CE317DF73B4}"/>
+    <hyperlink ref="B212" r:id="rId12" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{6BB31C9F-8BBC-4B53-8EEF-DA43434D7ECF}"/>
+    <hyperlink ref="N211" r:id="rId13" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{3E706240-64A1-45FC-BA86-8804D3B3D11E}"/>
+    <hyperlink ref="B211" r:id="rId14" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{22576EC8-6B1A-42FD-BCCB-5AE374D9B915}"/>
+    <hyperlink ref="N210" r:id="rId15" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{AD31A7FE-F0D8-4254-A353-C630F8869722}"/>
+    <hyperlink ref="B210" r:id="rId16" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{0FAD5BAD-4AF5-483C-99B5-EB6A772772D0}"/>
+    <hyperlink ref="N208" r:id="rId17" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{517CF45D-1609-4FC1-999C-19E825CC7288}"/>
+    <hyperlink ref="B208" r:id="rId18" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{5CC6A6A7-5C12-4BFF-8464-0F2394984E2A}"/>
+    <hyperlink ref="N207" r:id="rId19" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{04C5206D-2A68-4969-82C4-83A271EDD95F}"/>
+    <hyperlink ref="B207" r:id="rId20" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{BB994241-3A6A-4D7D-B42B-2305B80449D9}"/>
+    <hyperlink ref="N206" r:id="rId21" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{F1857883-55BA-44E5-BFFC-15797330C87B}"/>
+    <hyperlink ref="B206" r:id="rId22" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{23FEFB5F-3A96-430F-87DE-AB565FAF8600}"/>
+    <hyperlink ref="N205" r:id="rId23" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{3487DE28-0C70-4202-B7F1-97B631696C06}"/>
+    <hyperlink ref="B205" r:id="rId24" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{9A291C57-0832-4BBC-8FBB-D1AA9E17C0CE}"/>
+    <hyperlink ref="N204" r:id="rId25" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{D36B7EDA-411B-4D8F-B077-8E2856C46801}"/>
+    <hyperlink ref="B204" r:id="rId26" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{4BD42BC1-6D8C-427F-A518-89EA3F36241D}"/>
+    <hyperlink ref="N203" r:id="rId27" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{3AC8B4F8-9EBC-4F8D-B7E8-1E6E37725321}"/>
+    <hyperlink ref="B203" r:id="rId28" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{082DE223-3246-4AA9-93C8-80E516527292}"/>
+    <hyperlink ref="N202" r:id="rId29" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{F658F218-832B-4CFF-AC16-4166271D2133}"/>
+    <hyperlink ref="B202" r:id="rId30" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{A8E24C86-7848-4838-889B-F404317B76F3}"/>
+    <hyperlink ref="N201" r:id="rId31" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{2FCFCDF8-1391-4F23-A63D-6F6A8AFBE33D}"/>
+    <hyperlink ref="B201" r:id="rId32" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{CE833575-26F0-4DE2-9462-6A17C64145B6}"/>
+    <hyperlink ref="N200" r:id="rId33" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{3493AB50-6500-4105-A819-AD67ED145063}"/>
+    <hyperlink ref="B200" r:id="rId34" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{D259D49A-71A8-4D20-A0CB-F12DD13CAA9E}"/>
+    <hyperlink ref="N199" r:id="rId35" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{7FA2E8CB-A582-4C95-B158-5B44786E3A5C}"/>
+    <hyperlink ref="B199" r:id="rId36" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{D8B858EE-7160-4974-B556-8121B43551A7}"/>
+    <hyperlink ref="N198" r:id="rId37" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{BCD87F7B-00B6-4EF1-9237-75222C95FF64}"/>
+    <hyperlink ref="B198" r:id="rId38" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{EE6B7BC1-19C5-47B9-9DFD-74F079EB791A}"/>
+    <hyperlink ref="N197" r:id="rId39" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{61312B67-8E0B-40FF-9DCA-071CB6F2CE1A}"/>
+    <hyperlink ref="B197" r:id="rId40" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{87D9DC27-D388-458E-AB24-60E1D0F8B183}"/>
+    <hyperlink ref="N196" r:id="rId41" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{660CF90A-752B-4F59-B2BC-62D06BC1BACC}"/>
+    <hyperlink ref="B196" r:id="rId42" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{5BBEC995-B205-4A0D-8C23-A31D0C7E0A2E}"/>
+    <hyperlink ref="N195" r:id="rId43" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{44CB5A67-0034-44B5-BD0D-E8AA614E169B}"/>
+    <hyperlink ref="B195" r:id="rId44" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{188CDEFA-E26B-4C4D-B077-840B2365EEC8}"/>
+    <hyperlink ref="N194" r:id="rId45" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{C36019C5-C9E8-46AB-91D6-AEE7E2422829}"/>
+    <hyperlink ref="B194" r:id="rId46" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{5AE8A619-AF88-4650-9AEE-88D5D3D0B57F}"/>
+    <hyperlink ref="N193" r:id="rId47" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{11B6E1D8-7F04-4534-B743-AA66F92A6546}"/>
+    <hyperlink ref="B193" r:id="rId48" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{E6DBA9A3-CFB9-4F42-80B3-167018B4BF9D}"/>
+    <hyperlink ref="N192" r:id="rId49" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{1CBBF1F8-07BF-4322-A103-9C1DAF421A6D}"/>
+    <hyperlink ref="B192" r:id="rId50" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{8DDF990D-6B89-49F7-9CE8-F4F434DD41A3}"/>
+    <hyperlink ref="N191" r:id="rId51" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{63854D66-88AB-46AF-8222-BA2E7BA70681}"/>
+    <hyperlink ref="B191" r:id="rId52" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{EFAA8B21-C034-4FBE-9232-131DDEC11282}"/>
+    <hyperlink ref="N190" r:id="rId53" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{B93058E8-0C99-400E-B87E-6B7281FEBD35}"/>
+    <hyperlink ref="B190" r:id="rId54" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{B30E2147-D960-4D45-A933-46493FE98012}"/>
+    <hyperlink ref="N189" r:id="rId55" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{C0D7873E-F9E7-434F-BAFD-F36566AB4A19}"/>
+    <hyperlink ref="B189" r:id="rId56" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{FCF65420-093F-412E-A224-60B757FC3FE9}"/>
+    <hyperlink ref="N188" r:id="rId57" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{51E5DF39-9F9B-4A95-90FD-2F99B5012C72}"/>
+    <hyperlink ref="B188" r:id="rId58" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{C3960D15-37DC-4C50-92B3-CDE448866AE5}"/>
+    <hyperlink ref="N187" r:id="rId59" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{459AB6EC-804D-40B4-9095-E36279D26B03}"/>
+    <hyperlink ref="B187" r:id="rId60" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{968FF2CB-B6BB-4F7E-93C9-03799B933788}"/>
+    <hyperlink ref="N186" r:id="rId61" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{4D7ECA47-323C-43D1-A4AE-A60A9E37439A}"/>
+    <hyperlink ref="B186" r:id="rId62" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{30B30477-747B-49F2-BDF6-AA07EE377576}"/>
+    <hyperlink ref="N185" r:id="rId63" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{8D07422C-D410-4BFC-B7FC-0A483A9AE970}"/>
+    <hyperlink ref="B185" r:id="rId64" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{1F90FC54-66EF-48E9-955E-E694910E14CF}"/>
+    <hyperlink ref="N184" r:id="rId65" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{C4C3DB5C-CB14-4174-9705-B1E848278133}"/>
+    <hyperlink ref="B184" r:id="rId66" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{7959DB53-1881-479E-84D2-CFCE5B557479}"/>
+    <hyperlink ref="N183" r:id="rId67" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{DC4A98D9-0300-4AD5-BFF1-042C03934FFB}"/>
+    <hyperlink ref="B183" r:id="rId68" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{B18661A3-B8AD-46A2-8C25-D442D56AA876}"/>
+    <hyperlink ref="N182" r:id="rId69" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{962278D1-5CAB-45FA-9EF4-D09665A24E69}"/>
+    <hyperlink ref="B182" r:id="rId70" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{06F0A8FD-9F71-42EB-B6E8-663EB4C8D4E7}"/>
+    <hyperlink ref="N181" r:id="rId71" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{66647CBC-63B9-4F3C-8496-FBE21B70EE97}"/>
+    <hyperlink ref="B181" r:id="rId72" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{41791FDB-4643-46E7-AAE4-D64698195E8F}"/>
+    <hyperlink ref="N180" r:id="rId73" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{C21543F4-73FC-4A74-BAAC-76B47DD5FA42}"/>
+    <hyperlink ref="B180" r:id="rId74" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{892E2425-F313-44A8-B53C-1FEDA85D7F6A}"/>
+    <hyperlink ref="N179" r:id="rId75" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{95143C96-6434-4781-9E4D-0CE3889E47BD}"/>
+    <hyperlink ref="B179" r:id="rId76" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{B80C9C25-CF78-4680-BDB7-1C4BE0F09EA9}"/>
+    <hyperlink ref="N178" r:id="rId77" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{99DDA1A4-602C-42EC-A45E-A1FF36A5AC6E}"/>
+    <hyperlink ref="B178" r:id="rId78" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{D5592315-B75A-43E2-843A-60D1503FAC1B}"/>
+    <hyperlink ref="N177" r:id="rId79" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{B70314CB-8927-4B42-9A72-EB1633C302FA}"/>
+    <hyperlink ref="B177" r:id="rId80" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{5EE4B0A2-009D-41DB-9579-A94937BE87F6}"/>
+    <hyperlink ref="N176" r:id="rId81" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{ED76FD5E-6A59-47C6-B3C9-ADF139589CBF}"/>
+    <hyperlink ref="B176" r:id="rId82" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{865A8947-45A2-4198-BEC5-8D583727D74F}"/>
+    <hyperlink ref="N175" r:id="rId83" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{DDCC0FA3-8F0B-4805-A70A-511B39AC31EB}"/>
+    <hyperlink ref="B175" r:id="rId84" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{0939DDB9-DF06-4644-9F1C-0B37EE3D434B}"/>
+    <hyperlink ref="N174" r:id="rId85" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{3BC7E594-D30A-4940-910D-428FEF2F1E62}"/>
+    <hyperlink ref="B174" r:id="rId86" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{3F206C75-9AD0-44BF-93FF-324A4A8A3B3F}"/>
+    <hyperlink ref="N173" r:id="rId87" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{C99354F3-B99F-42CE-B0BA-9A1A0EE1B586}"/>
+    <hyperlink ref="B173" r:id="rId88" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{0CD5FDD0-621B-4004-9363-9B54B6BD5339}"/>
+    <hyperlink ref="N172" r:id="rId89" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{5BB0254D-63E3-45DB-83F6-CA097B616FFB}"/>
+    <hyperlink ref="B172" r:id="rId90" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{1AD48642-0E9F-4C18-866C-783914DF0484}"/>
+    <hyperlink ref="N171" r:id="rId91" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{693F1B2A-6D9B-4D47-9AEE-FED7DF05E9DC}"/>
+    <hyperlink ref="B171" r:id="rId92" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{094BFF2E-20C5-4D7F-AF1C-FF3315AEA079}"/>
+    <hyperlink ref="N170" r:id="rId93" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{C269BD5D-8D22-4A7F-921E-5EA4AB2738BE}"/>
+    <hyperlink ref="B170" r:id="rId94" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{704D0869-11D4-4D57-972D-686F4C08EFB6}"/>
+    <hyperlink ref="N169" r:id="rId95" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{44B5DF8C-F9A7-409D-A40F-0019FA5351C8}"/>
+    <hyperlink ref="B169" r:id="rId96" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{C0AD6CF5-7816-4E23-89C6-BBE5383897D1}"/>
+    <hyperlink ref="N168" r:id="rId97" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{9FAE718D-7672-4D84-9E3F-AEFB3FE606DC}"/>
+    <hyperlink ref="B168" r:id="rId98" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{48734B55-30DC-4EB7-A31D-C1E2F473E5A2}"/>
+    <hyperlink ref="N167" r:id="rId99" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{FAC8FD1B-5237-486C-B296-4E35B9641B54}"/>
+    <hyperlink ref="B167" r:id="rId100" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{46AA4EBF-6CCA-460D-B15D-67D32B85E66B}"/>
+    <hyperlink ref="N166" r:id="rId101" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{A003C256-9B3B-411F-8A94-DD3DF219F557}"/>
+    <hyperlink ref="B166" r:id="rId102" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{22951859-46FE-483D-B7E9-63F19ECBBF7C}"/>
+    <hyperlink ref="N165" r:id="rId103" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{CA44D2AD-8FF4-4194-BBCB-0CE97EB828E1}"/>
+    <hyperlink ref="B165" r:id="rId104" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{51191368-F85A-42E3-87D1-500A79407D73}"/>
+    <hyperlink ref="N164" r:id="rId105" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{AFE1F32F-C38F-4877-B846-820587045C54}"/>
+    <hyperlink ref="B164" r:id="rId106" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{EDEFA165-F1DC-41A6-948F-45EAFE97AE34}"/>
+    <hyperlink ref="N163" r:id="rId107" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{71C3F844-67DA-46EB-9CBE-20728C6CD782}"/>
+    <hyperlink ref="B163" r:id="rId108" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{84AA80DB-A337-4194-AB18-5270FAC94194}"/>
+    <hyperlink ref="N162" r:id="rId109" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{7F943B7E-CFAE-4BF8-B004-27A0D53D3798}"/>
+    <hyperlink ref="B162" r:id="rId110" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{92216377-0167-4413-9951-A18F08BF79E1}"/>
+    <hyperlink ref="N161" r:id="rId111" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{06D973AE-88A0-4F80-9E65-E29077097127}"/>
+    <hyperlink ref="B161" r:id="rId112" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{27FCD674-9FA7-4EF5-80EC-95301B76067F}"/>
+    <hyperlink ref="N160" r:id="rId113" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{68392716-909B-4F98-81C7-1A025A795EC7}"/>
+    <hyperlink ref="B160" r:id="rId114" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{0D808060-A7CD-47E6-9706-8D4E9B2EA29B}"/>
+    <hyperlink ref="N159" r:id="rId115" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{AC8795A7-2BE7-4F1D-A06C-C6F68829EF76}"/>
+    <hyperlink ref="B159" r:id="rId116" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{0D83859C-BB1D-447F-B654-7E08E9A2CC93}"/>
+    <hyperlink ref="N158" r:id="rId117" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{063C00A5-F138-4456-8700-584C497042F4}"/>
+    <hyperlink ref="B158" r:id="rId118" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{35285629-8D86-4DF9-9211-6AE14A7BF8F5}"/>
+    <hyperlink ref="N157" r:id="rId119" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{C3790112-0E1C-44BF-949F-D93EEFCBA3F9}"/>
+    <hyperlink ref="B157" r:id="rId120" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{3210A8E1-0F29-4C15-BE14-719FDCAC0AB5}"/>
+    <hyperlink ref="N156" r:id="rId121" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{83D89BEE-011F-4772-BF01-8C3EB1563E78}"/>
+    <hyperlink ref="B156" r:id="rId122" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{9CC8FCDA-0773-49A7-B050-3788FF8400DA}"/>
+    <hyperlink ref="N155" r:id="rId123" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{E758D393-A832-4AC4-8863-7211C46DDC00}"/>
+    <hyperlink ref="B155" r:id="rId124" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{4D71F7D7-FA6E-4FFC-A02F-4FC7013C9085}"/>
+    <hyperlink ref="N154" r:id="rId125" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{B78514E8-F866-41C9-8327-EA9586356F64}"/>
+    <hyperlink ref="B154" r:id="rId126" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{3C384A9C-9EB6-43F2-B4D2-1A4B9B0EA2DF}"/>
+    <hyperlink ref="N153" r:id="rId127" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{62DC50ED-7677-4BAA-81C4-8D3A9C719898}"/>
+    <hyperlink ref="B153" r:id="rId128" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{0AB94DB1-D624-421B-9846-E33EDCC696E3}"/>
+    <hyperlink ref="N152" r:id="rId129" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{AA387C1D-BCE7-4D65-9868-1C14409CC7CE}"/>
+    <hyperlink ref="B152" r:id="rId130" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{3493D4C5-7813-420F-AE79-581933CB400C}"/>
+    <hyperlink ref="N151" r:id="rId131" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{7FB56F82-844E-47F1-AAE1-BA2AD1F47275}"/>
+    <hyperlink ref="B151" r:id="rId132" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{95A04347-F472-46A7-905F-990B19F551FE}"/>
+    <hyperlink ref="N150" r:id="rId133" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{1EF1D048-7955-48FC-B64C-D07B362813D7}"/>
+    <hyperlink ref="B150" r:id="rId134" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{C940A032-2EB7-4301-9A43-35C6352DC54E}"/>
+    <hyperlink ref="N149" r:id="rId135" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{67833680-B545-4D39-B0BE-1369CE3FB177}"/>
+    <hyperlink ref="B149" r:id="rId136" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{ED20D8DE-AB7C-4663-8ADC-9EC78DE99E5C}"/>
+    <hyperlink ref="N148" r:id="rId137" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{CE6DF46F-4EDD-40FE-9425-9233550C39C1}"/>
+    <hyperlink ref="B148" r:id="rId138" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{94992A79-7CDE-447A-80C2-D2F6B7771DFF}"/>
+    <hyperlink ref="N147" r:id="rId139" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{C8A4BB40-BAC4-437B-9315-85FC142B71CA}"/>
+    <hyperlink ref="B147" r:id="rId140" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{CFCF0B4C-7EA1-40D6-8737-173521791F46}"/>
+    <hyperlink ref="N146" r:id="rId141" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{BF738A0E-F631-4589-8577-A35E226DFA81}"/>
+    <hyperlink ref="B146" r:id="rId142" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{90D76169-4AB4-478D-86C1-5695D0C75891}"/>
+    <hyperlink ref="N145" r:id="rId143" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{F65840A2-DFCF-41C4-BB13-2F78F12B233D}"/>
+    <hyperlink ref="B145" r:id="rId144" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{783F7429-2767-45E1-97F2-E6006E61FEF1}"/>
+    <hyperlink ref="N144" r:id="rId145" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{47BE3203-DC48-4D82-B2FB-549885CCEC6A}"/>
+    <hyperlink ref="B144" r:id="rId146" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{CD1E4B80-7559-451E-8CE8-2105B6CA63DE}"/>
+    <hyperlink ref="N143" r:id="rId147" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{13BBE102-B28C-4FA1-9415-C6ECE78A4251}"/>
+    <hyperlink ref="B143" r:id="rId148" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{0EFE99E0-5972-4B08-AEF8-7915463A9D05}"/>
+    <hyperlink ref="N142" r:id="rId149" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{6A99107E-69FD-409C-9412-2104A8158EB7}"/>
+    <hyperlink ref="B142" r:id="rId150" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{94185AA5-EFC1-410B-A48D-B61656B20959}"/>
+    <hyperlink ref="N141" r:id="rId151" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{3A333B78-3D36-49A1-93A5-3CFCF3BF823F}"/>
+    <hyperlink ref="B141" r:id="rId152" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{8993E5FD-D360-4E6B-8C16-49AC0771B437}"/>
+    <hyperlink ref="N140" r:id="rId153" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{45AA9191-75A3-413E-B777-78D09575091D}"/>
+    <hyperlink ref="B140" r:id="rId154" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{0E87602B-C3A9-44F1-8159-1C9907C7BD47}"/>
+    <hyperlink ref="N139" r:id="rId155" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{74DB703E-DAA5-4FC2-B7A7-4627C7D7571C}"/>
+    <hyperlink ref="B139" r:id="rId156" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{649E05A8-CF7E-4325-9C8E-E910D17CBA27}"/>
+    <hyperlink ref="N138" r:id="rId157" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{4A59FEA4-81B4-45B9-90D3-47AE71066BD1}"/>
+    <hyperlink ref="B138" r:id="rId158" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{DB4F263D-DED2-425D-A7E7-2DE3A86D0A07}"/>
+    <hyperlink ref="N137" r:id="rId159" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{EC6E73D1-D1A6-4472-AF70-D94591D5ED31}"/>
+    <hyperlink ref="B137" r:id="rId160" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{0BDD39F9-FAA5-48ED-889A-3D227328A179}"/>
+    <hyperlink ref="N136" r:id="rId161" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{0B59D7B0-46FA-43AA-97F9-71AED5DFA055}"/>
+    <hyperlink ref="B136" r:id="rId162" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{BABDDD7D-014A-498E-A9B5-5E78B0788CD7}"/>
+    <hyperlink ref="N135" r:id="rId163" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{02F66A53-657E-4B13-9F7D-61857676EFDA}"/>
+    <hyperlink ref="B135" r:id="rId164" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{5D86AE28-6931-4CB8-BB9C-D37AFD4B8A3F}"/>
+    <hyperlink ref="N134" r:id="rId165" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{F76A2B1C-3464-4C1F-A41F-D17D530DD44E}"/>
+    <hyperlink ref="B134" r:id="rId166" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{D33E5CB8-D3AC-4D3B-9D49-0C08F14D3C47}"/>
+    <hyperlink ref="N133" r:id="rId167" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{B9E68515-FBB3-4E31-A386-B1B508F0D41D}"/>
+    <hyperlink ref="B133" r:id="rId168" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{F20A77BB-AD92-4E34-8A30-438D26B833DD}"/>
+    <hyperlink ref="N132" r:id="rId169" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{6BF89539-654E-4237-B895-B819B86ADB42}"/>
+    <hyperlink ref="B132" r:id="rId170" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{26DA01D4-4E30-4656-9A17-0F39FC06C80B}"/>
+    <hyperlink ref="N130" r:id="rId171" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{D9C725CE-22C2-41F0-988A-8361BC3FFED4}"/>
+    <hyperlink ref="B130" r:id="rId172" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{F6F88385-6FCB-4C77-9D3A-FD6595980F04}"/>
+    <hyperlink ref="N129" r:id="rId173" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{EE200E94-3145-4208-B473-D84890183484}"/>
+    <hyperlink ref="B129" r:id="rId174" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{6E852A87-DC1A-43CB-820F-948C47C9D772}"/>
+    <hyperlink ref="N128" r:id="rId175" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{452250AD-69E0-4B6F-8F22-F26B1FB5FE22}"/>
+    <hyperlink ref="B128" r:id="rId176" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{3AB00F15-B94A-4373-9E2E-F8E696D7ED8A}"/>
+    <hyperlink ref="N127" r:id="rId177" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{D7F1A3F5-C8D3-40D6-9A02-AA5647F22E8D}"/>
+    <hyperlink ref="B127" r:id="rId178" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{473BA671-D340-4663-9911-D9C0E4BCFF40}"/>
+    <hyperlink ref="N126" r:id="rId179" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{A0234D8C-661F-47C9-ABAF-E901FC2C27AD}"/>
+    <hyperlink ref="B126" r:id="rId180" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{B5A6821C-CFA8-42EB-AFED-5B2DF1628930}"/>
+    <hyperlink ref="N125" r:id="rId181" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{C90EC8FF-837B-45A4-8185-D942B36026A5}"/>
+    <hyperlink ref="B125" r:id="rId182" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{1BC67680-D12A-484B-9BA4-41C75FB61627}"/>
+    <hyperlink ref="N124" r:id="rId183" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{1CC9CAF5-4E57-4955-B0C0-B94898B0317A}"/>
+    <hyperlink ref="B124" r:id="rId184" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{03138299-2A98-4CEE-A4A8-D9DE11218B0B}"/>
+    <hyperlink ref="N123" r:id="rId185" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{0BB8B5A2-54D0-4D9E-B906-1140377043E5}"/>
+    <hyperlink ref="B123" r:id="rId186" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{A94C715A-360B-4E1B-8B54-87F0801EAF6B}"/>
+    <hyperlink ref="N122" r:id="rId187" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{17D81ACB-80B4-4794-BB7C-2C420DF96EA1}"/>
+    <hyperlink ref="B122" r:id="rId188" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{02DDFDAA-9B71-47C0-A8B7-C4F40E108FA0}"/>
+    <hyperlink ref="N121" r:id="rId189" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{BF4DB65B-CAB9-43A1-81BA-FE58FA0E1974}"/>
+    <hyperlink ref="B121" r:id="rId190" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{34B8C3A7-28C3-4A94-827F-2AF4935E8347}"/>
+    <hyperlink ref="N120" r:id="rId191" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{BC851EEE-544B-4753-A025-EFD7BBCF667D}"/>
+    <hyperlink ref="B120" r:id="rId192" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{8FA980DF-CF05-4969-9F31-2FE35F5EE03A}"/>
+    <hyperlink ref="N119" r:id="rId193" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{E43D3B90-A6A9-4EEE-B7E5-18D15CF45F5A}"/>
+    <hyperlink ref="B119" r:id="rId194" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{98ABE418-FE9E-4ED7-90C1-38BB3E1E171E}"/>
+    <hyperlink ref="N118" r:id="rId195" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{DCD6F8E4-75BD-4531-B6A3-5D75296BB6A5}"/>
+    <hyperlink ref="B118" r:id="rId196" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{258E8107-1E43-40E2-A095-4A3453B1EAB6}"/>
+    <hyperlink ref="N117" r:id="rId197" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{E510A868-6CE2-4D33-AC86-0518B5D79DD3}"/>
+    <hyperlink ref="B117" r:id="rId198" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{05994CD7-7489-4660-BBB8-A1707D874FD3}"/>
+    <hyperlink ref="N116" r:id="rId199" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{3D9BC847-B9FC-469F-8648-3B8A791325DD}"/>
+    <hyperlink ref="B116" r:id="rId200" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{2072F8CA-66C9-4774-A690-386F0460F25E}"/>
+    <hyperlink ref="N115" r:id="rId201" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{1F857EDE-B05C-43DB-B0FA-DC2FA184C1DF}"/>
+    <hyperlink ref="B115" r:id="rId202" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{65764BF3-ADA5-494F-92F4-8C5F93E1E10E}"/>
+    <hyperlink ref="N114" r:id="rId203" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{80055974-7B43-4BDC-A302-FE2ABA989592}"/>
+    <hyperlink ref="B114" r:id="rId204" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{AD26AD7B-1225-4CA8-9250-F89ADD5D031C}"/>
+    <hyperlink ref="N113" r:id="rId205" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{B6CBF047-7F46-46D3-B41A-92F1052BEAA2}"/>
+    <hyperlink ref="B113" r:id="rId206" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{8A8C8DDC-EC22-4CD4-9593-902C00E166B4}"/>
+    <hyperlink ref="N112" r:id="rId207" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{CC8ECD18-EB8A-4794-A33C-BDFE8C12FB74}"/>
+    <hyperlink ref="B112" r:id="rId208" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{615E9854-F9F2-46A0-96C2-7ECB08F086F9}"/>
+    <hyperlink ref="N111" r:id="rId209" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{7E6A9457-411D-435B-8919-03A40F1E7DD7}"/>
+    <hyperlink ref="B111" r:id="rId210" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{915EE842-D78B-40C0-8A28-3C8B0AD8FC25}"/>
+    <hyperlink ref="N110" r:id="rId211" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{F82DFE47-41B1-4E68-9FC3-E40D8F87264C}"/>
     <hyperlink ref="B110" r:id="rId212" display="https://www.worldometers.info/coronavirus/country/albania/" xr:uid="{09F959BE-49B8-41C5-87D2-BFE21A6E4FE1}"/>
-    <hyperlink ref="N110" r:id="rId213" display="https://www.worldometers.info/world-population/albania-population/" xr:uid="{F82DFE47-41B1-4E68-9FC3-E40D8F87264C}"/>
-    <hyperlink ref="B111" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/china-hong-kong-sar/" xr:uid="{915EE842-D78B-40C0-8A28-3C8B0AD8FC25}"/>
-    <hyperlink ref="N111" r:id="rId215" display="https://www.worldometers.info/world-population/china-hong-kong-sar-population/" xr:uid="{7E6A9457-411D-435B-8919-03A40F1E7DD7}"/>
-    <hyperlink ref="B112" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/tunisia/" xr:uid="{615E9854-F9F2-46A0-96C2-7ECB08F086F9}"/>
-    <hyperlink ref="N112" r:id="rId217" display="https://www.worldometers.info/world-population/tunisia-population/" xr:uid="{CC8ECD18-EB8A-4794-A33C-BDFE8C12FB74}"/>
-    <hyperlink ref="B113" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/latvia/" xr:uid="{8A8C8DDC-EC22-4CD4-9593-902C00E166B4}"/>
-    <hyperlink ref="N113" r:id="rId219" display="https://www.worldometers.info/world-population/latvia-population/" xr:uid="{B6CBF047-7F46-46D3-B41A-92F1052BEAA2}"/>
-    <hyperlink ref="B114" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/ethiopia/" xr:uid="{AD26AD7B-1225-4CA8-9250-F89ADD5D031C}"/>
-    <hyperlink ref="N114" r:id="rId221" display="https://www.worldometers.info/world-population/ethiopia-population/" xr:uid="{80055974-7B43-4BDC-A302-FE2ABA989592}"/>
-    <hyperlink ref="B115" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/zambia/" xr:uid="{65764BF3-ADA5-494F-92F4-8C5F93E1E10E}"/>
-    <hyperlink ref="N115" r:id="rId223" display="https://www.worldometers.info/world-population/zambia-population/" xr:uid="{1F857EDE-B05C-43DB-B0FA-DC2FA184C1DF}"/>
-    <hyperlink ref="B116" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/costa-rica/" xr:uid="{2072F8CA-66C9-4774-A690-386F0460F25E}"/>
-    <hyperlink ref="N116" r:id="rId225" display="https://www.worldometers.info/world-population/costa-rica-population/" xr:uid="{3D9BC847-B9FC-469F-8648-3B8A791325DD}"/>
-    <hyperlink ref="B117" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/south-sudan/" xr:uid="{05994CD7-7489-4660-BBB8-A1707D874FD3}"/>
-    <hyperlink ref="N117" r:id="rId227" display="https://www.worldometers.info/world-population/south-sudan-population/" xr:uid="{E510A868-6CE2-4D33-AC86-0518B5D79DD3}"/>
-    <hyperlink ref="B118" r:id="rId228" display="https://www.worldometers.info/coronavirus/country/niger/" xr:uid="{258E8107-1E43-40E2-A095-4A3453B1EAB6}"/>
-    <hyperlink ref="N118" r:id="rId229" display="https://www.worldometers.info/world-population/niger-population/" xr:uid="{DCD6F8E4-75BD-4531-B6A3-5D75296BB6A5}"/>
-    <hyperlink ref="B119" r:id="rId230" display="https://www.worldometers.info/coronavirus/country/cyprus/" xr:uid="{98ABE418-FE9E-4ED7-90C1-38BB3E1E171E}"/>
-    <hyperlink ref="N119" r:id="rId231" display="https://www.worldometers.info/world-population/cyprus-population/" xr:uid="{E43D3B90-A6A9-4EEE-B7E5-18D15CF45F5A}"/>
-    <hyperlink ref="B120" r:id="rId232" display="https://www.worldometers.info/coronavirus/country/paraguay/" xr:uid="{8FA980DF-CF05-4969-9F31-2FE35F5EE03A}"/>
-    <hyperlink ref="N120" r:id="rId233" display="https://www.worldometers.info/world-population/paraguay-population/" xr:uid="{BC851EEE-544B-4753-A025-EFD7BBCF667D}"/>
-    <hyperlink ref="B121" r:id="rId234" display="https://www.worldometers.info/coronavirus/country/central-african-republic/" xr:uid="{34B8C3A7-28C3-4A94-827F-2AF4935E8347}"/>
-    <hyperlink ref="N121" r:id="rId235" display="https://www.worldometers.info/world-population/central-african-republic-population/" xr:uid="{BF4DB65B-CAB9-43A1-81BA-FE58FA0E1974}"/>
-    <hyperlink ref="B122" r:id="rId236" display="https://www.worldometers.info/coronavirus/country/burkina-faso/" xr:uid="{02DDFDAA-9B71-47C0-A8B7-C4F40E108FA0}"/>
-    <hyperlink ref="N122" r:id="rId237" display="https://www.worldometers.info/world-population/burkina-faso-population/" xr:uid="{17D81ACB-80B4-4794-BB7C-2C420DF96EA1}"/>
-    <hyperlink ref="B123" r:id="rId238" display="https://www.worldometers.info/coronavirus/country/sierra-leone/" xr:uid="{A94C715A-360B-4E1B-8B54-87F0801EAF6B}"/>
-    <hyperlink ref="N123" r:id="rId239" display="https://www.worldometers.info/world-population/sierra-leone-population/" xr:uid="{0BB8B5A2-54D0-4D9E-B906-1140377043E5}"/>
-    <hyperlink ref="B124" r:id="rId240" display="https://www.worldometers.info/coronavirus/country/uruguay/" xr:uid="{03138299-2A98-4CEE-A4A8-D9DE11218B0B}"/>
-    <hyperlink ref="N124" r:id="rId241" display="https://www.worldometers.info/world-population/uruguay-population/" xr:uid="{1CC9CAF5-4E57-4955-B0C0-B94898B0317A}"/>
-    <hyperlink ref="B125" r:id="rId242" display="https://www.worldometers.info/coronavirus/country/andorra/" xr:uid="{1BC67680-D12A-484B-9BA4-41C75FB61627}"/>
-    <hyperlink ref="N125" r:id="rId243" display="https://www.worldometers.info/world-population/andorra-population/" xr:uid="{C90EC8FF-837B-45A4-8185-D942B36026A5}"/>
-    <hyperlink ref="B126" r:id="rId244" display="https://www.worldometers.info/coronavirus/country/chad/" xr:uid="{B5A6821C-CFA8-42EB-AFED-5B2DF1628930}"/>
-    <hyperlink ref="N126" r:id="rId245" display="https://www.worldometers.info/world-population/chad-population/" xr:uid="{A0234D8C-661F-47C9-ABAF-E901FC2C27AD}"/>
-    <hyperlink ref="B127" r:id="rId246" display="https://www.worldometers.info/coronavirus/country/nicaragua/" xr:uid="{473BA671-D340-4663-9911-D9C0E4BCFF40}"/>
-    <hyperlink ref="N127" r:id="rId247" display="https://www.worldometers.info/world-population/nicaragua-population/" xr:uid="{D7F1A3F5-C8D3-40D6-9A02-AA5647F22E8D}"/>
-    <hyperlink ref="B128" r:id="rId248" display="https://www.worldometers.info/coronavirus/country/madagascar/" xr:uid="{3AB00F15-B94A-4373-9E2E-F8E696D7ED8A}"/>
-    <hyperlink ref="N128" r:id="rId249" display="https://www.worldometers.info/world-population/madagascar-population/" xr:uid="{452250AD-69E0-4B6F-8F22-F26B1FB5FE22}"/>
-    <hyperlink ref="B129" r:id="rId250" display="https://www.worldometers.info/coronavirus/country/georgia/" xr:uid="{6E852A87-DC1A-43CB-820F-948C47C9D772}"/>
-    <hyperlink ref="N129" r:id="rId251" display="https://www.worldometers.info/world-population/georgia-population/" xr:uid="{EE200E94-3145-4208-B473-D84890183484}"/>
-    <hyperlink ref="B130" r:id="rId252" display="https://www.worldometers.info/coronavirus/country/jordan/" xr:uid="{F6F88385-6FCB-4C77-9D3A-FD6595980F04}"/>
-    <hyperlink ref="N130" r:id="rId253" display="https://www.worldometers.info/world-population/jordan-population/" xr:uid="{D9C725CE-22C2-41F0-988A-8361BC3FFED4}"/>
-    <hyperlink ref="B132" r:id="rId254" display="https://www.worldometers.info/coronavirus/country/san-marino/" xr:uid="{26DA01D4-4E30-4656-9A17-0F39FC06C80B}"/>
-    <hyperlink ref="N132" r:id="rId255" display="https://www.worldometers.info/world-population/san-marino-population/" xr:uid="{6BF89539-654E-4237-B895-B819B86ADB42}"/>
-    <hyperlink ref="B133" r:id="rId256" display="https://www.worldometers.info/coronavirus/country/malta/" xr:uid="{F20A77BB-AD92-4E34-8A30-438D26B833DD}"/>
-    <hyperlink ref="N133" r:id="rId257" display="https://www.worldometers.info/world-population/malta-population/" xr:uid="{B9E68515-FBB3-4E31-A386-B1B508F0D41D}"/>
-    <hyperlink ref="B134" r:id="rId258" display="https://www.worldometers.info/coronavirus/country/jamaica/" xr:uid="{D33E5CB8-D3AC-4D3B-9D49-0C08F14D3C47}"/>
-    <hyperlink ref="N134" r:id="rId259" display="https://www.worldometers.info/world-population/jamaica-population/" xr:uid="{F76A2B1C-3464-4C1F-A41F-D17D530DD44E}"/>
-    <hyperlink ref="B135" r:id="rId260" display="https://www.worldometers.info/coronavirus/country/congo/" xr:uid="{5D86AE28-6931-4CB8-BB9C-D37AFD4B8A3F}"/>
-    <hyperlink ref="N135" r:id="rId261" display="https://www.worldometers.info/world-population/congo-population/" xr:uid="{02F66A53-657E-4B13-9F7D-61857676EFDA}"/>
-    <hyperlink ref="B136" r:id="rId262" display="https://www.worldometers.info/coronavirus/country/channel-islands/" xr:uid="{BABDDD7D-014A-498E-A9B5-5E78B0788CD7}"/>
-    <hyperlink ref="N136" r:id="rId263" display="https://www.worldometers.info/world-population/channel-islands-population/" xr:uid="{0B59D7B0-46FA-43AA-97F9-71AED5DFA055}"/>
-    <hyperlink ref="B137" r:id="rId264" display="https://www.worldometers.info/coronavirus/country/tanzania/" xr:uid="{0BDD39F9-FAA5-48ED-889A-3D227328A179}"/>
-    <hyperlink ref="N137" r:id="rId265" display="https://www.worldometers.info/world-population/tanzania-population/" xr:uid="{EC6E73D1-D1A6-4472-AF70-D94591D5ED31}"/>
-    <hyperlink ref="B138" r:id="rId266" display="https://www.worldometers.info/coronavirus/country/reunion/" xr:uid="{DB4F263D-DED2-425D-A7E7-2DE3A86D0A07}"/>
-    <hyperlink ref="N138" r:id="rId267" display="https://www.worldometers.info/world-population/reunion-population/" xr:uid="{4A59FEA4-81B4-45B9-90D3-47AE71066BD1}"/>
-    <hyperlink ref="B139" r:id="rId268" display="https://www.worldometers.info/coronavirus/country/sao-tome-and-principe/" xr:uid="{649E05A8-CF7E-4325-9C8E-E910D17CBA27}"/>
-    <hyperlink ref="N139" r:id="rId269" display="https://www.worldometers.info/world-population/sao-tome-and-principe-population/" xr:uid="{74DB703E-DAA5-4FC2-B7A7-4627C7D7571C}"/>
-    <hyperlink ref="B140" r:id="rId270" display="https://www.worldometers.info/coronavirus/country/french-guiana/" xr:uid="{0E87602B-C3A9-44F1-8159-1C9907C7BD47}"/>
-    <hyperlink ref="N140" r:id="rId271" display="https://www.worldometers.info/world-population/french-guiana-population/" xr:uid="{45AA9191-75A3-413E-B777-78D09575091D}"/>
-    <hyperlink ref="B141" r:id="rId272" display="https://www.worldometers.info/coronavirus/country/state-of-palestine/" xr:uid="{8993E5FD-D360-4E6B-8C16-49AC0771B437}"/>
-    <hyperlink ref="N141" r:id="rId273" display="https://www.worldometers.info/world-population/state-of-palestine-population/" xr:uid="{3A333B78-3D36-49A1-93A5-3CFCF3BF823F}"/>
-    <hyperlink ref="B142" r:id="rId274" display="https://www.worldometers.info/coronavirus/country/taiwan/" xr:uid="{94185AA5-EFC1-410B-A48D-B61656B20959}"/>
-    <hyperlink ref="N142" r:id="rId275" display="https://www.worldometers.info/world-population/taiwan-population/" xr:uid="{6A99107E-69FD-409C-9412-2104A8158EB7}"/>
-    <hyperlink ref="B143" r:id="rId276" display="https://www.worldometers.info/coronavirus/country/togo/" xr:uid="{0EFE99E0-5972-4B08-AEF8-7915463A9D05}"/>
-    <hyperlink ref="N143" r:id="rId277" display="https://www.worldometers.info/world-population/togo-population/" xr:uid="{13BBE102-B28C-4FA1-9415-C6ECE78A4251}"/>
-    <hyperlink ref="B144" r:id="rId278" display="https://www.worldometers.info/coronavirus/country/mauritania/" xr:uid="{CD1E4B80-7559-451E-8CE8-2105B6CA63DE}"/>
-    <hyperlink ref="N144" r:id="rId279" display="https://www.worldometers.info/world-population/mauritania-population/" xr:uid="{47BE3203-DC48-4D82-B2FB-549885CCEC6A}"/>
-    <hyperlink ref="B145" r:id="rId280" display="https://www.worldometers.info/coronavirus/country/cabo-verde/" xr:uid="{783F7429-2767-45E1-97F2-E6006E61FEF1}"/>
-    <hyperlink ref="N145" r:id="rId281" display="https://www.worldometers.info/world-population/cabo-verde-population/" xr:uid="{F65840A2-DFCF-41C4-BB13-2F78F12B233D}"/>
-    <hyperlink ref="B146" r:id="rId282" display="https://www.worldometers.info/coronavirus/country/rwanda/" xr:uid="{90D76169-4AB4-478D-86C1-5695D0C75891}"/>
-    <hyperlink ref="N146" r:id="rId283" display="https://www.worldometers.info/world-population/rwanda-population/" xr:uid="{BF738A0E-F631-4589-8577-A35E226DFA81}"/>
-    <hyperlink ref="B147" r:id="rId284" display="https://www.worldometers.info/coronavirus/country/isle-of-man/" xr:uid="{CFCF0B4C-7EA1-40D6-8737-173521791F46}"/>
-    <hyperlink ref="N147" r:id="rId285" display="https://www.worldometers.info/world-population/isle-of-man-population/" xr:uid="{C8A4BB40-BAC4-437B-9315-85FC142B71CA}"/>
-    <hyperlink ref="B148" r:id="rId286" display="https://www.worldometers.info/coronavirus/country/mauritius/" xr:uid="{94992A79-7CDE-447A-80C2-D2F6B7771DFF}"/>
-    <hyperlink ref="N148" r:id="rId287" display="https://www.worldometers.info/world-population/mauritius-population/" xr:uid="{CE6DF46F-4EDD-40FE-9425-9233550C39C1}"/>
-    <hyperlink ref="B149" r:id="rId288" display="https://www.worldometers.info/coronavirus/country/uganda/" xr:uid="{ED20D8DE-AB7C-4663-8ADC-9EC78DE99E5C}"/>
-    <hyperlink ref="N149" r:id="rId289" display="https://www.worldometers.info/world-population/uganda-population/" xr:uid="{67833680-B545-4D39-B0BE-1369CE3FB177}"/>
-    <hyperlink ref="B150" r:id="rId290" display="https://www.worldometers.info/coronavirus/country/viet-nam/" xr:uid="{C940A032-2EB7-4301-9A43-35C6352DC54E}"/>
-    <hyperlink ref="N150" r:id="rId291" display="https://www.worldometers.info/world-population/viet-nam-population/" xr:uid="{1EF1D048-7955-48FC-B64C-D07B362813D7}"/>
-    <hyperlink ref="B151" r:id="rId292" display="https://www.worldometers.info/coronavirus/country/montenegro/" xr:uid="{95A04347-F472-46A7-905F-990B19F551FE}"/>
-    <hyperlink ref="N151" r:id="rId293" display="https://www.worldometers.info/world-population/montenegro-population/" xr:uid="{7FB56F82-844E-47F1-AAE1-BA2AD1F47275}"/>
-    <hyperlink ref="B152" r:id="rId294" display="https://www.worldometers.info/coronavirus/country/yemen/" xr:uid="{3493D4C5-7813-420F-AE79-581933CB400C}"/>
-    <hyperlink ref="N152" r:id="rId295" display="https://www.worldometers.info/world-population/yemen-population/" xr:uid="{AA387C1D-BCE7-4D65-9868-1C14409CC7CE}"/>
-    <hyperlink ref="B153" r:id="rId296" display="https://www.worldometers.info/coronavirus/country/swaziland/" xr:uid="{0AB94DB1-D624-421B-9846-E33EDCC696E3}"/>
-    <hyperlink ref="N153" r:id="rId297" display="https://www.worldometers.info/world-population/swaziland-population/" xr:uid="{62DC50ED-7677-4BAA-81C4-8D3A9C719898}"/>
-    <hyperlink ref="B154" r:id="rId298" display="https://www.worldometers.info/coronavirus/country/liberia/" xr:uid="{3C384A9C-9EB6-43F2-B4D2-1A4B9B0EA2DF}"/>
-    <hyperlink ref="N154" r:id="rId299" display="https://www.worldometers.info/world-population/liberia-population/" xr:uid="{B78514E8-F866-41C9-8327-EA9586356F64}"/>
-    <hyperlink ref="B155" r:id="rId300" display="https://www.worldometers.info/coronavirus/country/malawi/" xr:uid="{4D71F7D7-FA6E-4FFC-A02F-4FC7013C9085}"/>
-    <hyperlink ref="N155" r:id="rId301" display="https://www.worldometers.info/world-population/malawi-population/" xr:uid="{E758D393-A832-4AC4-8863-7211C46DDC00}"/>
-    <hyperlink ref="B156" r:id="rId302" display="https://www.worldometers.info/coronavirus/country/mozambique/" xr:uid="{9CC8FCDA-0773-49A7-B050-3788FF8400DA}"/>
-    <hyperlink ref="N156" r:id="rId303" display="https://www.worldometers.info/world-population/mozambique-population/" xr:uid="{83D89BEE-011F-4772-BF01-8C3EB1563E78}"/>
-    <hyperlink ref="B157" r:id="rId304" display="https://www.worldometers.info/coronavirus/country/myanmar/" xr:uid="{3210A8E1-0F29-4C15-BE14-719FDCAC0AB5}"/>
-    <hyperlink ref="N157" r:id="rId305" display="https://www.worldometers.info/world-population/myanmar-population/" xr:uid="{C3790112-0E1C-44BF-949F-D93EEFCBA3F9}"/>
-    <hyperlink ref="B158" r:id="rId306" display="https://www.worldometers.info/coronavirus/country/benin/" xr:uid="{35285629-8D86-4DF9-9211-6AE14A7BF8F5}"/>
-    <hyperlink ref="N158" r:id="rId307" display="https://www.worldometers.info/world-population/benin-population/" xr:uid="{063C00A5-F138-4456-8700-584C497042F4}"/>
-    <hyperlink ref="B159" r:id="rId308" display="https://www.worldometers.info/coronavirus/country/martinique/" xr:uid="{0D83859C-BB1D-447F-B654-7E08E9A2CC93}"/>
-    <hyperlink ref="N159" r:id="rId309" display="https://www.worldometers.info/world-population/martinique-population/" xr:uid="{AC8795A7-2BE7-4F1D-A06C-C6F68829EF76}"/>
-    <hyperlink ref="B160" r:id="rId310" display="https://www.worldometers.info/coronavirus/country/faeroe-islands/" xr:uid="{0D808060-A7CD-47E6-9706-8D4E9B2EA29B}"/>
-    <hyperlink ref="N160" r:id="rId311" display="https://www.worldometers.info/world-population/faeroe-islands-population/" xr:uid="{68392716-909B-4F98-81C7-1A025A795EC7}"/>
-    <hyperlink ref="B161" r:id="rId312" display="https://www.worldometers.info/coronavirus/country/mongolia/" xr:uid="{27FCD674-9FA7-4EF5-80EC-95301B76067F}"/>
-    <hyperlink ref="N161" r:id="rId313" display="https://www.worldometers.info/world-population/mongolia-population/" xr:uid="{06D973AE-88A0-4F80-9E65-E29077097127}"/>
-    <hyperlink ref="B162" r:id="rId314" display="https://www.worldometers.info/coronavirus/country/guadeloupe/" xr:uid="{92216377-0167-4413-9951-A18F08BF79E1}"/>
-    <hyperlink ref="N162" r:id="rId315" display="https://www.worldometers.info/world-population/guadeloupe-population/" xr:uid="{7F943B7E-CFAE-4BF8-B004-27A0D53D3798}"/>
-    <hyperlink ref="B163" r:id="rId316" display="https://www.worldometers.info/coronavirus/country/gibraltar/" xr:uid="{84AA80DB-A337-4194-AB18-5270FAC94194}"/>
-    <hyperlink ref="N163" r:id="rId317" display="https://www.worldometers.info/world-population/gibraltar-population/" xr:uid="{71C3F844-67DA-46EB-9CBE-20728C6CD782}"/>
-    <hyperlink ref="B164" r:id="rId318" display="https://www.worldometers.info/coronavirus/country/zimbabwe/" xr:uid="{EDEFA165-F1DC-41A6-948F-45EAFE97AE34}"/>
-    <hyperlink ref="N164" r:id="rId319" display="https://www.worldometers.info/world-population/zimbabwe-population/" xr:uid="{AFE1F32F-C38F-4877-B846-820587045C54}"/>
-    <hyperlink ref="B165" r:id="rId320" display="https://www.worldometers.info/coronavirus/country/guyana/" xr:uid="{51191368-F85A-42E3-87D1-500A79407D73}"/>
-    <hyperlink ref="N165" r:id="rId321" display="https://www.worldometers.info/world-population/guyana-population/" xr:uid="{CA44D2AD-8FF4-4194-BBCB-0CE97EB828E1}"/>
-    <hyperlink ref="B166" r:id="rId322" display="https://www.worldometers.info/coronavirus/country/brunei-darussalam/" xr:uid="{22951859-46FE-483D-B7E9-63F19ECBBF7C}"/>
-    <hyperlink ref="N166" r:id="rId323" display="https://www.worldometers.info/world-population/brunei-darussalam-population/" xr:uid="{A003C256-9B3B-411F-8A94-DD3DF219F557}"/>
-    <hyperlink ref="B167" r:id="rId324" display="https://www.worldometers.info/coronavirus/country/cayman-islands/" xr:uid="{46AA4EBF-6CCA-460D-B15D-67D32B85E66B}"/>
-    <hyperlink ref="N167" r:id="rId325" display="https://www.worldometers.info/world-population/cayman-islands-population/" xr:uid="{FAC8FD1B-5237-486C-B296-4E35B9641B54}"/>
-    <hyperlink ref="B168" r:id="rId326" display="https://www.worldometers.info/coronavirus/country/bermuda/" xr:uid="{48734B55-30DC-4EB7-A31D-C1E2F473E5A2}"/>
-    <hyperlink ref="N168" r:id="rId327" display="https://www.worldometers.info/world-population/bermuda-population/" xr:uid="{9FAE718D-7672-4D84-9E3F-AEFB3FE606DC}"/>
-    <hyperlink ref="B169" r:id="rId328" display="https://www.worldometers.info/coronavirus/country/cambodia/" xr:uid="{C0AD6CF5-7816-4E23-89C6-BBE5383897D1}"/>
-    <hyperlink ref="N169" r:id="rId329" display="https://www.worldometers.info/world-population/cambodia-population/" xr:uid="{44B5DF8C-F9A7-409D-A40F-0019FA5351C8}"/>
-    <hyperlink ref="B170" r:id="rId330" display="https://www.worldometers.info/coronavirus/country/syria/" xr:uid="{704D0869-11D4-4D57-972D-686F4C08EFB6}"/>
-    <hyperlink ref="N170" r:id="rId331" display="https://www.worldometers.info/world-population/syria-population/" xr:uid="{C269BD5D-8D22-4A7F-921E-5EA4AB2738BE}"/>
-    <hyperlink ref="B171" r:id="rId332" display="https://www.worldometers.info/coronavirus/country/libya/" xr:uid="{094BFF2E-20C5-4D7F-AF1C-FF3315AEA079}"/>
-    <hyperlink ref="N171" r:id="rId333" display="https://www.worldometers.info/world-population/libya-population/" xr:uid="{693F1B2A-6D9B-4D47-9AEE-FED7DF05E9DC}"/>
-    <hyperlink ref="B172" r:id="rId334" display="https://www.worldometers.info/coronavirus/country/trinidad-and-tobago/" xr:uid="{1AD48642-0E9F-4C18-866C-783914DF0484}"/>
-    <hyperlink ref="N172" r:id="rId335" display="https://www.worldometers.info/world-population/trinidad-and-tobago-population/" xr:uid="{5BB0254D-63E3-45DB-83F6-CA097B616FFB}"/>
-    <hyperlink ref="B173" r:id="rId336" display="https://www.worldometers.info/coronavirus/country/bahamas/" xr:uid="{0CD5FDD0-621B-4004-9363-9B54B6BD5339}"/>
-    <hyperlink ref="N173" r:id="rId337" display="https://www.worldometers.info/world-population/bahamas-population/" xr:uid="{C99354F3-B99F-42CE-B0BA-9A1A0EE1B586}"/>
-    <hyperlink ref="B174" r:id="rId338" display="https://www.worldometers.info/coronavirus/country/aruba/" xr:uid="{3F206C75-9AD0-44BF-93FF-324A4A8A3B3F}"/>
-    <hyperlink ref="N174" r:id="rId339" display="https://www.worldometers.info/world-population/aruba-population/" xr:uid="{3BC7E594-D30A-4940-910D-428FEF2F1E62}"/>
-    <hyperlink ref="B175" r:id="rId340" display="https://www.worldometers.info/coronavirus/country/monaco/" xr:uid="{0939DDB9-DF06-4644-9F1C-0B37EE3D434B}"/>
-    <hyperlink ref="N175" r:id="rId341" display="https://www.worldometers.info/world-population/monaco-population/" xr:uid="{DDCC0FA3-8F0B-4805-A70A-511B39AC31EB}"/>
-    <hyperlink ref="B176" r:id="rId342" display="https://www.worldometers.info/coronavirus/country/barbados/" xr:uid="{865A8947-45A2-4198-BEC5-8D583727D74F}"/>
-    <hyperlink ref="N176" r:id="rId343" display="https://www.worldometers.info/world-population/barbados-population/" xr:uid="{ED76FD5E-6A59-47C6-B3C9-ADF139589CBF}"/>
-    <hyperlink ref="B177" r:id="rId344" display="https://www.worldometers.info/coronavirus/country/comoros/" xr:uid="{5EE4B0A2-009D-41DB-9579-A94937BE87F6}"/>
-    <hyperlink ref="N177" r:id="rId345" display="https://www.worldometers.info/world-population/comoros-population/" xr:uid="{B70314CB-8927-4B42-9A72-EB1633C302FA}"/>
-    <hyperlink ref="B178" r:id="rId346" display="https://www.worldometers.info/coronavirus/country/liechtenstein/" xr:uid="{D5592315-B75A-43E2-843A-60D1503FAC1B}"/>
-    <hyperlink ref="N178" r:id="rId347" display="https://www.worldometers.info/world-population/liechtenstein-population/" xr:uid="{99DDA1A4-602C-42EC-A45E-A1FF36A5AC6E}"/>
-    <hyperlink ref="B179" r:id="rId348" display="https://www.worldometers.info/coronavirus/country/angola/" xr:uid="{B80C9C25-CF78-4680-BDB7-1C4BE0F09EA9}"/>
-    <hyperlink ref="N179" r:id="rId349" display="https://www.worldometers.info/world-population/angola-population/" xr:uid="{95143C96-6434-4781-9E4D-0CE3889E47BD}"/>
-    <hyperlink ref="B180" r:id="rId350" display="https://www.worldometers.info/coronavirus/country/sint-maarten/" xr:uid="{892E2425-F313-44A8-B53C-1FEDA85D7F6A}"/>
-    <hyperlink ref="N180" r:id="rId351" display="https://www.worldometers.info/world-population/sint-maarten-population/" xr:uid="{C21543F4-73FC-4A74-BAAC-76B47DD5FA42}"/>
-    <hyperlink ref="B181" r:id="rId352" display="https://www.worldometers.info/coronavirus/country/french-polynesia/" xr:uid="{41791FDB-4643-46E7-AAE4-D64698195E8F}"/>
-    <hyperlink ref="N181" r:id="rId353" display="https://www.worldometers.info/world-population/french-polynesia-population/" xr:uid="{66647CBC-63B9-4F3C-8496-FBE21B70EE97}"/>
-    <hyperlink ref="B182" r:id="rId354" display="https://www.worldometers.info/coronavirus/country/china-macao-sar/" xr:uid="{06F0A8FD-9F71-42EB-B6E8-663EB4C8D4E7}"/>
-    <hyperlink ref="N182" r:id="rId355" display="https://www.worldometers.info/world-population/china-macao-sar-population/" xr:uid="{962278D1-5CAB-45FA-9EF4-D09665A24E69}"/>
-    <hyperlink ref="B183" r:id="rId356" display="https://www.worldometers.info/coronavirus/country/burundi/" xr:uid="{B18661A3-B8AD-46A2-8C25-D442D56AA876}"/>
-    <hyperlink ref="N183" r:id="rId357" display="https://www.worldometers.info/world-population/burundi-population/" xr:uid="{DC4A98D9-0300-4AD5-BFF1-042C03934FFB}"/>
-    <hyperlink ref="B184" r:id="rId358" display="https://www.worldometers.info/coronavirus/country/saint-martin/" xr:uid="{7959DB53-1881-479E-84D2-CFCE5B557479}"/>
-    <hyperlink ref="N184" r:id="rId359" display="https://www.worldometers.info/world-population/saint-martin-population/" xr:uid="{C4C3DB5C-CB14-4174-9705-B1E848278133}"/>
-    <hyperlink ref="B185" r:id="rId360" display="https://www.worldometers.info/coronavirus/country/eritrea/" xr:uid="{1F90FC54-66EF-48E9-955E-E694910E14CF}"/>
-    <hyperlink ref="N185" r:id="rId361" display="https://www.worldometers.info/world-population/eritrea-population/" xr:uid="{8D07422C-D410-4BFC-B7FC-0A483A9AE970}"/>
-    <hyperlink ref="B186" r:id="rId362" display="https://www.worldometers.info/coronavirus/country/botswana/" xr:uid="{30B30477-747B-49F2-BDF6-AA07EE377576}"/>
-    <hyperlink ref="N186" r:id="rId363" display="https://www.worldometers.info/world-population/botswana-population/" xr:uid="{4D7ECA47-323C-43D1-A4AE-A60A9E37439A}"/>
-    <hyperlink ref="B187" r:id="rId364" display="https://www.worldometers.info/coronavirus/country/bhutan/" xr:uid="{968FF2CB-B6BB-4F7E-93C9-03799B933788}"/>
-    <hyperlink ref="N187" r:id="rId365" display="https://www.worldometers.info/world-population/bhutan-population/" xr:uid="{459AB6EC-804D-40B4-9095-E36279D26B03}"/>
-    <hyperlink ref="B188" r:id="rId366" display="https://www.worldometers.info/coronavirus/country/saint-vincent-and-the-grenadines/" xr:uid="{C3960D15-37DC-4C50-92B3-CDE448866AE5}"/>
-    <hyperlink ref="N188" r:id="rId367" display="https://www.worldometers.info/world-population/saint-vincent-and-the-grenadines-population/" xr:uid="{51E5DF39-9F9B-4A95-90FD-2F99B5012C72}"/>
-    <hyperlink ref="B189" r:id="rId368" display="https://www.worldometers.info/coronavirus/country/antigua-and-barbuda/" xr:uid="{FCF65420-093F-412E-A224-60B757FC3FE9}"/>
-    <hyperlink ref="N189" r:id="rId369" display="https://www.worldometers.info/world-population/antigua-and-barbuda-population/" xr:uid="{C0D7873E-F9E7-434F-BAFD-F36566AB4A19}"/>
-    <hyperlink ref="B190" r:id="rId370" display="https://www.worldometers.info/coronavirus/country/gambia/" xr:uid="{B30E2147-D960-4D45-A933-46493FE98012}"/>
-    <hyperlink ref="N190" r:id="rId371" display="https://www.worldometers.info/world-population/gambia-population/" xr:uid="{B93058E8-0C99-400E-B87E-6B7281FEBD35}"/>
-    <hyperlink ref="B191" r:id="rId372" display="https://www.worldometers.info/coronavirus/country/timor-leste/" xr:uid="{EFAA8B21-C034-4FBE-9232-131DDEC11282}"/>
-    <hyperlink ref="N191" r:id="rId373" display="https://www.worldometers.info/world-population/timor-leste-population/" xr:uid="{63854D66-88AB-46AF-8222-BA2E7BA70681}"/>
-    <hyperlink ref="B192" r:id="rId374" display="https://www.worldometers.info/coronavirus/country/grenada/" xr:uid="{8DDF990D-6B89-49F7-9CE8-F4F434DD41A3}"/>
-    <hyperlink ref="N192" r:id="rId375" display="https://www.worldometers.info/world-population/grenada-population/" xr:uid="{1CBBF1F8-07BF-4322-A103-9C1DAF421A6D}"/>
-    <hyperlink ref="B193" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/namibia/" xr:uid="{E6DBA9A3-CFB9-4F42-80B3-167018B4BF9D}"/>
-    <hyperlink ref="N193" r:id="rId377" display="https://www.worldometers.info/world-population/namibia-population/" xr:uid="{11B6E1D8-7F04-4534-B743-AA66F92A6546}"/>
-    <hyperlink ref="B194" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/laos/" xr:uid="{5AE8A619-AF88-4650-9AEE-88D5D3D0B57F}"/>
-    <hyperlink ref="N194" r:id="rId379" display="https://www.worldometers.info/world-population/laos-population/" xr:uid="{C36019C5-C9E8-46AB-91D6-AEE7E2422829}"/>
-    <hyperlink ref="B195" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/new-caledonia/" xr:uid="{188CDEFA-E26B-4C4D-B077-840B2365EEC8}"/>
-    <hyperlink ref="N195" r:id="rId381" display="https://www.worldometers.info/world-population/new-caledonia-population/" xr:uid="{44CB5A67-0034-44B5-BD0D-E8AA614E169B}"/>
-    <hyperlink ref="B196" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/belize/" xr:uid="{5BBEC995-B205-4A0D-8C23-A31D0C7E0A2E}"/>
-    <hyperlink ref="N196" r:id="rId383" display="https://www.worldometers.info/world-population/belize-population/" xr:uid="{660CF90A-752B-4F59-B2BC-62D06BC1BACC}"/>
-    <hyperlink ref="B197" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/curacao/" xr:uid="{87D9DC27-D388-458E-AB24-60E1D0F8B183}"/>
-    <hyperlink ref="N197" r:id="rId385" display="https://www.worldometers.info/world-population/curacao-population/" xr:uid="{61312B67-8E0B-40FF-9DCA-071CB6F2CE1A}"/>
-    <hyperlink ref="B198" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/fiji/" xr:uid="{EE6B7BC1-19C5-47B9-9DFD-74F079EB791A}"/>
-    <hyperlink ref="N198" r:id="rId387" display="https://www.worldometers.info/world-population/fiji-population/" xr:uid="{BCD87F7B-00B6-4EF1-9237-75222C95FF64}"/>
-    <hyperlink ref="B199" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/saint-lucia/" xr:uid="{D8B858EE-7160-4974-B556-8121B43551A7}"/>
-    <hyperlink ref="N199" r:id="rId389" display="https://www.worldometers.info/world-population/saint-lucia-population/" xr:uid="{7FA2E8CB-A582-4C95-B158-5B44786E3A5C}"/>
-    <hyperlink ref="B200" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/dominica/" xr:uid="{D259D49A-71A8-4D20-A0CB-F12DD13CAA9E}"/>
-    <hyperlink ref="N200" r:id="rId391" display="https://www.worldometers.info/world-population/dominica-population/" xr:uid="{3493AB50-6500-4105-A819-AD67ED145063}"/>
-    <hyperlink ref="B201" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/saint-kitts-and-nevis/" xr:uid="{CE833575-26F0-4DE2-9462-6A17C64145B6}"/>
-    <hyperlink ref="N201" r:id="rId393" display="https://www.worldometers.info/world-population/saint-kitts-and-nevis-population/" xr:uid="{2FCFCDF8-1391-4F23-A63D-6F6A8AFBE33D}"/>
-    <hyperlink ref="B202" r:id="rId394" display="https://www.worldometers.info/coronavirus/country/falkland-islands-malvinas/" xr:uid="{A8E24C86-7848-4838-889B-F404317B76F3}"/>
-    <hyperlink ref="N202" r:id="rId395" display="https://www.worldometers.info/world-population/falkland-islands-malvinas-population/" xr:uid="{F658F218-832B-4CFF-AC16-4166271D2133}"/>
-    <hyperlink ref="B203" r:id="rId396" display="https://www.worldometers.info/coronavirus/country/greenland/" xr:uid="{082DE223-3246-4AA9-93C8-80E516527292}"/>
-    <hyperlink ref="N203" r:id="rId397" display="https://www.worldometers.info/world-population/greenland-population/" xr:uid="{3AC8B4F8-9EBC-4F8D-B7E8-1E6E37725321}"/>
-    <hyperlink ref="B204" r:id="rId398" display="https://www.worldometers.info/coronavirus/country/suriname/" xr:uid="{4BD42BC1-6D8C-427F-A518-89EA3F36241D}"/>
-    <hyperlink ref="N204" r:id="rId399" display="https://www.worldometers.info/world-population/suriname-population/" xr:uid="{D36B7EDA-411B-4D8F-B077-8E2856C46801}"/>
-    <hyperlink ref="B205" r:id="rId400" display="https://www.worldometers.info/coronavirus/country/turks-and-caicos-islands/" xr:uid="{9A291C57-0832-4BBC-8FBB-D1AA9E17C0CE}"/>
-    <hyperlink ref="N205" r:id="rId401" display="https://www.worldometers.info/world-population/turks-and-caicos-islands-population/" xr:uid="{3487DE28-0C70-4202-B7F1-97B631696C06}"/>
-    <hyperlink ref="B206" r:id="rId402" display="https://www.worldometers.info/coronavirus/country/holy-see/" xr:uid="{23FEFB5F-3A96-430F-87DE-AB565FAF8600}"/>
-    <hyperlink ref="N206" r:id="rId403" display="https://www.worldometers.info/world-population/holy-see-population/" xr:uid="{F1857883-55BA-44E5-BFFC-15797330C87B}"/>
-    <hyperlink ref="B207" r:id="rId404" display="https://www.worldometers.info/coronavirus/country/montserrat/" xr:uid="{BB994241-3A6A-4D7D-B42B-2305B80449D9}"/>
-    <hyperlink ref="N207" r:id="rId405" display="https://www.worldometers.info/world-population/montserrat-population/" xr:uid="{04C5206D-2A68-4969-82C4-83A271EDD95F}"/>
-    <hyperlink ref="B208" r:id="rId406" display="https://www.worldometers.info/coronavirus/country/seychelles/" xr:uid="{5CC6A6A7-5C12-4BFF-8464-0F2394984E2A}"/>
-    <hyperlink ref="N208" r:id="rId407" display="https://www.worldometers.info/world-population/seychelles-population/" xr:uid="{517CF45D-1609-4FC1-999C-19E825CC7288}"/>
-    <hyperlink ref="B210" r:id="rId408" display="https://www.worldometers.info/coronavirus/country/western-sahara/" xr:uid="{0FAD5BAD-4AF5-483C-99B5-EB6A772772D0}"/>
-    <hyperlink ref="N210" r:id="rId409" display="https://www.worldometers.info/world-population/western-sahara-population/" xr:uid="{AD31A7FE-F0D8-4254-A353-C630F8869722}"/>
-    <hyperlink ref="B211" r:id="rId410" display="https://www.worldometers.info/coronavirus/country/british-virgin-islands/" xr:uid="{22576EC8-6B1A-42FD-BCCB-5AE374D9B915}"/>
-    <hyperlink ref="N211" r:id="rId411" display="https://www.worldometers.info/world-population/british-virgin-islands-population/" xr:uid="{3E706240-64A1-45FC-BA86-8804D3B3D11E}"/>
-    <hyperlink ref="B212" r:id="rId412" display="https://www.worldometers.info/coronavirus/country/papua-new-guinea/" xr:uid="{6BB31C9F-8BBC-4B53-8EEF-DA43434D7ECF}"/>
-    <hyperlink ref="N212" r:id="rId413" display="https://www.worldometers.info/world-population/papua-new-guinea-population/" xr:uid="{6BABC2D2-F636-4BB3-89EA-9CE317DF73B4}"/>
-    <hyperlink ref="B213" r:id="rId414" display="https://www.worldometers.info/coronavirus/country/caribbean-netherlands/" xr:uid="{414C26ED-412F-426E-8178-A0C59B46B921}"/>
-    <hyperlink ref="N213" r:id="rId415" display="https://www.worldometers.info/world-population/caribbean-netherlands-population/" xr:uid="{D39CE065-4ED6-454A-8FE0-75A351A0B36C}"/>
-    <hyperlink ref="B214" r:id="rId416" display="https://www.worldometers.info/coronavirus/country/saint-barthelemy/" xr:uid="{D13477ED-7888-4BA0-B6A3-227D7BCD86AB}"/>
-    <hyperlink ref="N214" r:id="rId417" display="https://www.worldometers.info/world-population/saint-barthelemy-population/" xr:uid="{3D04F14B-8DB8-4D41-910E-9FA8AF6A3BE2}"/>
-    <hyperlink ref="B215" r:id="rId418" display="https://www.worldometers.info/coronavirus/country/anguilla/" xr:uid="{88D58839-EECC-4234-A834-A46D7E514A15}"/>
-    <hyperlink ref="N215" r:id="rId419" display="https://www.worldometers.info/world-population/anguilla-population/" xr:uid="{1224EAD4-024A-4CD5-B07E-ADF569AA4142}"/>
-    <hyperlink ref="B216" r:id="rId420" display="https://www.worldometers.info/coronavirus/country/lesotho/" xr:uid="{32C4B0A5-E5B7-4030-9368-D01791713089}"/>
-    <hyperlink ref="N216" r:id="rId421" display="https://www.worldometers.info/world-population/lesotho-population/" xr:uid="{3C14385C-BF19-4D97-A407-85EF2DA7E71C}"/>
-    <hyperlink ref="B217" r:id="rId422" display="https://www.worldometers.info/coronavirus/country/saint-pierre-and-miquelon/" xr:uid="{543FF9CA-6B52-4D21-94F8-F794A5325846}"/>
-    <hyperlink ref="N217" r:id="rId423" display="https://www.worldometers.info/world-population/saint-pierre-and-miquelon-population/" xr:uid="{2EEECAB5-5846-4AAC-A66A-C105E24FBCA1}"/>
+    <hyperlink ref="N109" r:id="rId213" display="https://www.worldometers.info/world-population/lebanon-population/" xr:uid="{D85AA0B3-9E69-471B-9C2B-966C8698B0D9}"/>
+    <hyperlink ref="B109" r:id="rId214" display="https://www.worldometers.info/coronavirus/country/lebanon/" xr:uid="{BC43B17B-CDEF-45F4-9957-BF28C7D9CB69}"/>
+    <hyperlink ref="N108" r:id="rId215" display="https://www.worldometers.info/world-population/mali-population/" xr:uid="{607B2AB7-CC18-423C-9765-2A0C91CBA06B}"/>
+    <hyperlink ref="B108" r:id="rId216" display="https://www.worldometers.info/coronavirus/country/mali/" xr:uid="{5E6DAB6B-8150-4BDF-A048-55A4318C94C9}"/>
+    <hyperlink ref="N107" r:id="rId217" display="https://www.worldometers.info/world-population/guinea-bissau-population/" xr:uid="{96AD314D-6498-44C0-A707-44D4A0F6CC8C}"/>
+    <hyperlink ref="B107" r:id="rId218" display="https://www.worldometers.info/coronavirus/country/guinea-bissau/" xr:uid="{8CBA62D9-B522-470D-BA29-D8CE16EDA5F6}"/>
+    <hyperlink ref="N106" r:id="rId219" display="https://www.worldometers.info/world-population/equatorial-guinea-population/" xr:uid="{5A4B0A61-8614-4A06-ADB9-03047CDEF8D8}"/>
+    <hyperlink ref="B106" r:id="rId220" display="https://www.worldometers.info/coronavirus/country/equatorial-guinea/" xr:uid="{23C24EF3-F09F-464D-AA0B-5B01F9923DD2}"/>
+    <hyperlink ref="N105" r:id="rId221" display="https://www.worldometers.info/world-population/venezuela-population/" xr:uid="{30427E5B-630E-4D60-9A05-0347DC0FEDC9}"/>
+    <hyperlink ref="B105" r:id="rId222" display="https://www.worldometers.info/coronavirus/country/venezuela/" xr:uid="{E8790597-54EE-4E36-8C42-E59A39DA2A2A}"/>
+    <hyperlink ref="N104" r:id="rId223" display="https://www.worldometers.info/world-population/nepal-population/" xr:uid="{0BBD26FD-4381-4E5E-A702-18D80A261535}"/>
+    <hyperlink ref="B104" r:id="rId224" display="https://www.worldometers.info/coronavirus/country/nepal/" xr:uid="{9A1F87F6-542B-45AC-8293-11B7FEE89F4C}"/>
+    <hyperlink ref="N103" r:id="rId225" display="https://www.worldometers.info/world-population/slovenia-population/" xr:uid="{67061948-60A6-4D4F-9D40-707F6BFE750E}"/>
+    <hyperlink ref="B103" r:id="rId226" display="https://www.worldometers.info/coronavirus/country/slovenia/" xr:uid="{3657EE86-9216-4904-A09C-0022FE2909F3}"/>
+    <hyperlink ref="B102" r:id="rId227" display="https://www.worldometers.info/coronavirus/country/new-zealand/" xr:uid="{3B8669FD-A1F2-4453-87E8-C2F14A6FF7F5}"/>
+    <hyperlink ref="N101" r:id="rId228" display="https://www.worldometers.info/world-population/slovakia-population/" xr:uid="{351B00D6-0717-46C0-A154-4FD7D827F8D8}"/>
+    <hyperlink ref="B101" r:id="rId229" display="https://www.worldometers.info/coronavirus/country/slovakia/" xr:uid="{8EAFA199-AD18-49CD-8BFE-A4EE6E2E41BE}"/>
+    <hyperlink ref="N100" r:id="rId230" display="https://www.worldometers.info/world-population/sri-lanka-population/" xr:uid="{65822FC3-B948-4C0A-9119-320ACD914AA5}"/>
+    <hyperlink ref="B100" r:id="rId231" display="https://www.worldometers.info/coronavirus/country/sri-lanka/" xr:uid="{78E5EBD9-F739-4D5C-8D75-980A7D1E2CE7}"/>
+    <hyperlink ref="N99" r:id="rId232" display="https://www.worldometers.info/world-population/haiti-population/" xr:uid="{95292C3F-7994-4859-A527-AEA3E5B22EDB}"/>
+    <hyperlink ref="B99" r:id="rId233" display="https://www.worldometers.info/coronavirus/country/haiti/" xr:uid="{EB2660D5-41A1-4D7D-B22F-2648FDEB841A}"/>
+    <hyperlink ref="N98" r:id="rId234" display="https://www.worldometers.info/world-population/maldives-population/" xr:uid="{C81FE094-2616-41DA-82A3-2902C37797BC}"/>
+    <hyperlink ref="B98" r:id="rId235" display="https://www.worldometers.info/coronavirus/country/maldives/" xr:uid="{554A0334-9A2B-4F9C-B7DE-FA15F29E6492}"/>
+    <hyperlink ref="N97" r:id="rId236" display="https://www.worldometers.info/world-population/lithuania-population/" xr:uid="{F3EF628C-F26B-44EE-BE66-D04BE9100444}"/>
+    <hyperlink ref="B97" r:id="rId237" display="https://www.worldometers.info/coronavirus/country/lithuania/" xr:uid="{91FE8A1A-4A03-4F89-8FAA-4AE966145BCD}"/>
+    <hyperlink ref="N96" r:id="rId238" display="https://www.worldometers.info/world-population/mayotte-population/" xr:uid="{6AC099EB-595C-4B71-B606-298BE02C7642}"/>
+    <hyperlink ref="B96" r:id="rId239" display="https://www.worldometers.info/coronavirus/country/mayotte/" xr:uid="{DCCCFA6D-0CDE-4EF6-BA72-68643C8A5F5E}"/>
+    <hyperlink ref="N95" r:id="rId240" display="https://www.worldometers.info/world-population/kyrgyzstan-population/" xr:uid="{289BD308-BDF7-4850-8C8C-EFF48FB7EF9F}"/>
+    <hyperlink ref="B95" r:id="rId241" display="https://www.worldometers.info/coronavirus/country/kyrgyzstan/" xr:uid="{B0EB4212-B090-410A-BC0D-075EFE7F0F95}"/>
+    <hyperlink ref="N94" r:id="rId242" display="https://www.worldometers.info/world-population/kenya-population/" xr:uid="{A2C92D12-4CE0-437F-B222-5E1D1C4C3A8A}"/>
+    <hyperlink ref="B94" r:id="rId243" display="https://www.worldometers.info/coronavirus/country/kenya/" xr:uid="{3BD75609-42D1-43B9-8B40-DD18C8273111}"/>
+    <hyperlink ref="N93" r:id="rId244" display="https://www.worldometers.info/world-population/iceland-population/" xr:uid="{1CB1801B-17B6-4C5E-ACAF-D5E88B79B345}"/>
+    <hyperlink ref="B93" r:id="rId245" display="https://www.worldometers.info/coronavirus/country/iceland/" xr:uid="{CA90BB19-E9E1-4E59-9DF1-496C2E3A598F}"/>
+    <hyperlink ref="N92" r:id="rId246" display="https://www.worldometers.info/world-population/somalia-population/" xr:uid="{E5426FC8-792F-4DAE-A092-5A5595A01882}"/>
+    <hyperlink ref="B92" r:id="rId247" display="https://www.worldometers.info/coronavirus/country/somalia/" xr:uid="{771A12E7-B163-45A8-8888-F204614D32E2}"/>
+    <hyperlink ref="N91" r:id="rId248" display="https://www.worldometers.info/world-population/estonia-population/" xr:uid="{20BE01D9-CCE2-4B0A-B909-685B03F82E2E}"/>
+    <hyperlink ref="B91" r:id="rId249" display="https://www.worldometers.info/coronavirus/country/estonia/" xr:uid="{6FD9F548-D2CA-4EA3-B7FC-D1293E2C9C55}"/>
+    <hyperlink ref="N90" r:id="rId250" display="https://www.worldometers.info/world-population/cuba-population/" xr:uid="{C9507368-1E24-4229-9FC7-FDDBE896D0EB}"/>
+    <hyperlink ref="B90" r:id="rId251" display="https://www.worldometers.info/coronavirus/country/cuba/" xr:uid="{FC772F34-DEBC-42A7-B372-D39BC74DD30C}"/>
+    <hyperlink ref="N89" r:id="rId252" display="https://www.worldometers.info/world-population/macedonia-population/" xr:uid="{BC40126F-AE80-4C3B-94E3-BAA04225283D}"/>
+    <hyperlink ref="B89" r:id="rId253" display="https://www.worldometers.info/coronavirus/country/macedonia/" xr:uid="{D7B6C140-CD84-402A-8781-218840816EFA}"/>
+    <hyperlink ref="N88" r:id="rId254" display="https://www.worldometers.info/world-population/croatia-population/" xr:uid="{636B160C-89B2-450B-A043-82B5606BD611}"/>
+    <hyperlink ref="B88" r:id="rId255" display="https://www.worldometers.info/coronavirus/country/croatia/" xr:uid="{6B2F7E66-7EB4-4F0D-A6DA-53A3BDC82299}"/>
+    <hyperlink ref="N87" r:id="rId256" display="https://www.worldometers.info/world-population/el-salvador-population/" xr:uid="{B620B644-0E14-45DD-804D-FD5A8D752163}"/>
+    <hyperlink ref="B87" r:id="rId257" display="https://www.worldometers.info/coronavirus/country/el-salvador/" xr:uid="{7CF4CE77-C215-4BFD-B617-D410387F6694}"/>
+    <hyperlink ref="N86" r:id="rId258" display="https://www.worldometers.info/world-population/bosnia-and-herzegovina-population/" xr:uid="{6C4A1095-ADA4-4054-9D10-5A8393C66296}"/>
+    <hyperlink ref="B86" r:id="rId259" display="https://www.worldometers.info/coronavirus/country/bosnia-and-herzegovina/" xr:uid="{A5971D8D-7DEA-4DCD-9F21-9763125BBC8F}"/>
+    <hyperlink ref="N85" r:id="rId260" display="https://www.worldometers.info/world-population/bulgaria-population/" xr:uid="{A762AE16-CF82-4B7A-8357-AEBA9901A5D2}"/>
+    <hyperlink ref="B85" r:id="rId261" display="https://www.worldometers.info/coronavirus/country/bulgaria/" xr:uid="{31E03241-32F7-4294-AB96-846A377ACCA6}"/>
+    <hyperlink ref="N84" r:id="rId262" display="https://www.worldometers.info/world-population/gabon-population/" xr:uid="{88282BD2-5B41-4CB0-9C14-010562CF11F2}"/>
+    <hyperlink ref="B84" r:id="rId263" display="https://www.worldometers.info/coronavirus/country/gabon/" xr:uid="{BA44E4F6-34FC-4B36-AF7A-8DB2F050D210}"/>
+    <hyperlink ref="N83" r:id="rId264" display="https://www.worldometers.info/world-population/cote-d-ivoire-population/" xr:uid="{40AB4B4B-EE34-4C23-BB54-6FAB9FFD4646}"/>
+    <hyperlink ref="B83" r:id="rId265" display="https://www.worldometers.info/coronavirus/country/cote-d-ivoire/" xr:uid="{37206A2A-1B93-434E-9387-202EF4071AA9}"/>
+    <hyperlink ref="N82" r:id="rId266" display="https://www.worldometers.info/world-population/greece-population/" xr:uid="{EDC2BE25-5A7F-4239-929A-C449613E132A}"/>
+    <hyperlink ref="B82" r:id="rId267" display="https://www.worldometers.info/coronavirus/country/greece/" xr:uid="{87D42CDB-5E0B-4EDD-A294-209FB6901DEB}"/>
+    <hyperlink ref="N81" r:id="rId268" display="https://www.worldometers.info/world-population/djibouti-population/" xr:uid="{B5A58C3C-AC03-4FA7-BCF4-2160CC66FE95}"/>
+    <hyperlink ref="B81" r:id="rId269" display="https://www.worldometers.info/coronavirus/country/djibouti/" xr:uid="{B5F83FC1-ACB2-4CA3-A83B-6F92A086DD87}"/>
+    <hyperlink ref="N80" r:id="rId270" display="https://www.worldometers.info/world-population/democratic-republic-of-the-congo-population/" xr:uid="{02023E35-AF26-4C8D-AD2A-C1B0AC81E040}"/>
+    <hyperlink ref="B80" r:id="rId271" display="https://www.worldometers.info/coronavirus/country/democratic-republic-of-the-congo/" xr:uid="{2627D273-8C24-49F8-91B6-86D34F7FFBD5}"/>
+    <hyperlink ref="N79" r:id="rId272" display="https://www.worldometers.info/world-population/thailand-population/" xr:uid="{4938429E-F4E0-45E3-BB02-0D45DE0F6BA3}"/>
+    <hyperlink ref="B79" r:id="rId273" display="https://www.worldometers.info/coronavirus/country/thailand/" xr:uid="{65D9DFA4-77D9-4C7C-9EFF-1A449B2F4327}"/>
+    <hyperlink ref="N78" r:id="rId274" display="https://www.worldometers.info/world-population/uzbekistan-population/" xr:uid="{061EFCBC-B027-4000-AEDE-D5DE6BA27AF7}"/>
+    <hyperlink ref="B78" r:id="rId275" display="https://www.worldometers.info/coronavirus/country/uzbekistan/" xr:uid="{18DD61EF-8389-4FDA-A822-0C6804616673}"/>
+    <hyperlink ref="N77" r:id="rId276" display="https://www.worldometers.info/world-population/senegal-population/" xr:uid="{1A5759BA-B505-4276-93B7-B933398AA455}"/>
+    <hyperlink ref="B77" r:id="rId277" display="https://www.worldometers.info/coronavirus/country/senegal/" xr:uid="{C67F0D45-306E-467A-A893-7D0874F996E2}"/>
+    <hyperlink ref="N76" r:id="rId278" display="https://www.worldometers.info/world-population/guinea-population/" xr:uid="{EAF89B90-EF34-4B93-9D92-FFA872231573}"/>
+    <hyperlink ref="B76" r:id="rId279" display="https://www.worldometers.info/coronavirus/country/guinea/" xr:uid="{84758150-F3DE-4FB4-A95A-86419806A63E}"/>
+    <hyperlink ref="N75" r:id="rId280" display="https://www.worldometers.info/world-population/tajikistan-population/" xr:uid="{8CFD07A6-CF92-4326-963F-40C03DE867F1}"/>
+    <hyperlink ref="B75" r:id="rId281" display="https://www.worldometers.info/coronavirus/country/tajikistan/" xr:uid="{FB2CA167-7BB8-4FE0-B5B3-A5391F1C7EBD}"/>
+    <hyperlink ref="N74" r:id="rId282" display="https://www.worldometers.info/world-population/hungary-population/" xr:uid="{4F37BA49-314A-4933-A2F9-036279BE506A}"/>
+    <hyperlink ref="B74" r:id="rId283" display="https://www.worldometers.info/coronavirus/country/hungary/" xr:uid="{F14ABE7E-ADF2-446F-A77F-BB07F020C3E4}"/>
+    <hyperlink ref="N73" r:id="rId284" display="https://www.worldometers.info/world-population/luxembourg-population/" xr:uid="{5A3B7EB3-DB75-4D1C-93C3-A4159CD8A083}"/>
+    <hyperlink ref="B73" r:id="rId285" display="https://www.worldometers.info/coronavirus/country/luxembourg/" xr:uid="{DF96334C-5D49-45E2-BC6D-BFADA21E20DD}"/>
+    <hyperlink ref="N72" r:id="rId286" display="https://www.worldometers.info/world-population/sudan-population/" xr:uid="{18D24966-20AE-467E-9D3F-0FBFE2B0D8D9}"/>
+    <hyperlink ref="B72" r:id="rId287" display="https://www.worldometers.info/coronavirus/country/sudan/" xr:uid="{6434D54D-32A1-4BD3-A2B8-058DB3C1DECB}"/>
+    <hyperlink ref="N71" r:id="rId288" display="https://www.worldometers.info/world-population/guatemala-population/" xr:uid="{09295A65-D44E-41D8-A4D0-BD04121F71D1}"/>
+    <hyperlink ref="B71" r:id="rId289" display="https://www.worldometers.info/coronavirus/country/guatemala/" xr:uid="{C1A0206D-EEC8-485D-AD36-457531D4081C}"/>
+    <hyperlink ref="N70" r:id="rId290" display="https://www.worldometers.info/world-population/honduras-population/" xr:uid="{8BA0992F-B201-4890-9145-8E9EF5C9F37C}"/>
+    <hyperlink ref="B70" r:id="rId291" display="https://www.worldometers.info/coronavirus/country/honduras/" xr:uid="{9AF7781E-8460-423E-A785-AFCFE4D23820}"/>
+    <hyperlink ref="N69" r:id="rId292" display="https://www.worldometers.info/world-population/azerbaijan-population/" xr:uid="{DCF68173-B1B1-4C2A-9EAF-876A2A67D1AB}"/>
+    <hyperlink ref="B69" r:id="rId293" display="https://www.worldometers.info/coronavirus/country/azerbaijan/" xr:uid="{E7CE3887-2D77-4860-A02E-7F7702248B06}"/>
+    <hyperlink ref="N68" r:id="rId294" display="https://www.worldometers.info/world-population/cameroon-population/" xr:uid="{B1816400-F875-43C0-BA4C-8FF0A972A34D}"/>
+    <hyperlink ref="B68" r:id="rId295" display="https://www.worldometers.info/coronavirus/country/cameroon/" xr:uid="{A1110A7D-FB3D-495D-BD73-0CD37DECC828}"/>
+    <hyperlink ref="N67" r:id="rId296" display="https://www.worldometers.info/world-population/iraq-population/" xr:uid="{195FDED5-F7BF-48E0-B6C0-DD7A424C2D27}"/>
+    <hyperlink ref="B67" r:id="rId297" display="https://www.worldometers.info/coronavirus/country/iraq/" xr:uid="{6A235510-DC32-4609-A0D9-FAF4DA70AE2A}"/>
+    <hyperlink ref="N66" r:id="rId298" display="https://www.worldometers.info/world-population/finland-population/" xr:uid="{B67402D7-FCC4-4FEA-A88F-180121698B3C}"/>
+    <hyperlink ref="B66" r:id="rId299" display="https://www.worldometers.info/coronavirus/country/finland/" xr:uid="{16FEF8B6-85F1-493D-B84F-E061F322C5D5}"/>
+    <hyperlink ref="N65" r:id="rId300" display="https://www.worldometers.info/world-population/australia-population/" xr:uid="{4A94A37E-718F-43CD-A5AB-E0AB27594653}"/>
+    <hyperlink ref="B65" r:id="rId301" display="https://www.worldometers.info/coronavirus/country/australia/" xr:uid="{712FAEFB-1708-4CAB-A26F-A6779A559A06}"/>
+    <hyperlink ref="N64" r:id="rId302" display="https://www.worldometers.info/world-population/ghana-population/" xr:uid="{610DB63B-89EE-48EF-86C1-AEC4DE7B64E1}"/>
+    <hyperlink ref="B64" r:id="rId303" display="https://www.worldometers.info/coronavirus/country/ghana/" xr:uid="{DD3E8EEE-1ECC-4FAE-85DE-B04C3D9767A5}"/>
+    <hyperlink ref="N63" r:id="rId304" display="https://www.worldometers.info/world-population/morocco-population/" xr:uid="{CBF5F5A4-3509-4F92-BEF0-31CED4864904}"/>
+    <hyperlink ref="B63" r:id="rId305" display="https://www.worldometers.info/coronavirus/country/morocco/" xr:uid="{BB72964C-172C-4544-A720-8C24929788B9}"/>
+    <hyperlink ref="N62" r:id="rId306" display="https://www.worldometers.info/world-population/malaysia-population/" xr:uid="{1DC6D262-7EE3-4244-AC23-A58507123F23}"/>
+    <hyperlink ref="B62" r:id="rId307" display="https://www.worldometers.info/coronavirus/country/malaysia/" xr:uid="{C55EEB60-16CF-4712-B1B9-4E9750BF0442}"/>
+    <hyperlink ref="N61" r:id="rId308" display="https://www.worldometers.info/world-population/moldova-population/" xr:uid="{56A83650-D4AF-4830-8D77-F64926808ECB}"/>
+    <hyperlink ref="B61" r:id="rId309" display="https://www.worldometers.info/coronavirus/country/moldova/" xr:uid="{2E1E29D4-D10A-49B0-9E37-7C589CEE17D7}"/>
+    <hyperlink ref="N60" r:id="rId310" display="https://www.worldometers.info/world-population/norway-population/" xr:uid="{CE20FDB4-1106-43DA-B0D8-8B46D2ACD15B}"/>
+    <hyperlink ref="B60" r:id="rId311" display="https://www.worldometers.info/coronavirus/country/norway/" xr:uid="{A9EE0D88-358F-47DC-B3CD-49A4F80EA384}"/>
+    <hyperlink ref="N59" r:id="rId312" display="https://www.worldometers.info/world-population/bolivia-population/" xr:uid="{DCE9F691-E560-4A2A-925D-3CEB45987988}"/>
+    <hyperlink ref="B59" r:id="rId313" display="https://www.worldometers.info/coronavirus/country/bolivia/" xr:uid="{9B514F7A-519C-4D5D-8A86-543EE10FF09B}"/>
+    <hyperlink ref="N58" r:id="rId314" display="https://www.worldometers.info/world-population/armenia-population/" xr:uid="{27FAF440-3593-4436-B63D-0B90C281753B}"/>
+    <hyperlink ref="B58" r:id="rId315" display="https://www.worldometers.info/coronavirus/country/armenia/" xr:uid="{46BB934D-34E9-4BC7-B229-96CA26F5C7A5}"/>
+    <hyperlink ref="N57" r:id="rId316" display="https://www.worldometers.info/world-population/algeria-population/" xr:uid="{7509D27E-3DC2-40A2-8C38-4B0A5469A6F7}"/>
+    <hyperlink ref="B57" r:id="rId317" display="https://www.worldometers.info/coronavirus/country/algeria/" xr:uid="{FBFEF4AF-075D-4FFE-8B1D-E397A76A1F8B}"/>
+    <hyperlink ref="N56" r:id="rId318" display="https://www.worldometers.info/world-population/czech-republic-population/" xr:uid="{4A69BE6E-0B64-4DFE-A90B-5A5E63CA4F52}"/>
+    <hyperlink ref="B56" r:id="rId319" display="https://www.worldometers.info/coronavirus/country/czech-republic/" xr:uid="{8D2FA71E-DC7B-4B6C-A72B-8DA66CF97D39}"/>
+    <hyperlink ref="N55" r:id="rId320" display="https://www.worldometers.info/world-population/nigeria-population/" xr:uid="{B04E845E-12D7-40D7-9CF2-159740F85474}"/>
+    <hyperlink ref="B55" r:id="rId321" display="https://www.worldometers.info/coronavirus/country/nigeria/" xr:uid="{3BD133CF-0F4D-46A0-A2E8-54B1039C0214}"/>
+    <hyperlink ref="N54" r:id="rId322" display="https://www.worldometers.info/world-population/kazakhstan-population/" xr:uid="{644BA9E3-5C7F-4EB7-AB42-1B00EE37D487}"/>
+    <hyperlink ref="B54" r:id="rId323" display="https://www.worldometers.info/coronavirus/country/kazakhstan/" xr:uid="{A2ED73B3-945C-49DA-9A65-6CF0D887287F}"/>
+    <hyperlink ref="N53" r:id="rId324" display="https://www.worldometers.info/world-population/oman-population/" xr:uid="{F52D967D-83CC-43D1-84C5-5FE2C7AA69CF}"/>
+    <hyperlink ref="B53" r:id="rId325" display="https://www.worldometers.info/coronavirus/country/oman/" xr:uid="{11BFD0B7-7E52-4145-992F-AB313AD60803}"/>
+    <hyperlink ref="N52" r:id="rId326" display="https://www.worldometers.info/world-population/bahrain-population/" xr:uid="{132963C2-9BF6-453B-BA43-F047793DF016}"/>
+    <hyperlink ref="B52" r:id="rId327" display="https://www.worldometers.info/coronavirus/country/bahrain/" xr:uid="{2AAAB88E-8630-4CF9-9555-79011FFB04A3}"/>
+    <hyperlink ref="N51" r:id="rId328" display="https://www.worldometers.info/world-population/serbia-population/" xr:uid="{FBA555EE-538E-4CF9-B493-6EBE4781AE16}"/>
+    <hyperlink ref="B51" r:id="rId329" display="https://www.worldometers.info/coronavirus/country/serbia/" xr:uid="{E2D4F172-A034-439A-A3A8-ACE56F9323E5}"/>
+    <hyperlink ref="N50" r:id="rId330" display="https://www.worldometers.info/world-population/south-korea-population/" xr:uid="{93F1496D-A4A5-4A64-9B4F-565D3BC38405}"/>
+    <hyperlink ref="B50" r:id="rId331" display="https://www.worldometers.info/coronavirus/country/south-korea/" xr:uid="{220FBDBC-B5AA-44E9-B5F0-9E50D8F218D9}"/>
+    <hyperlink ref="N49" r:id="rId332" display="https://www.worldometers.info/world-population/denmark-population/" xr:uid="{33D4DDE3-DB39-4796-8296-BB38AAC4C1E1}"/>
+    <hyperlink ref="B49" r:id="rId333" display="https://www.worldometers.info/coronavirus/country/denmark/" xr:uid="{97CE90BA-8708-4598-A9BB-6531E2BDE64D}"/>
+    <hyperlink ref="N48" r:id="rId334" display="https://www.worldometers.info/world-population/panama-population/" xr:uid="{55D9AFC7-26A7-40C7-8EE1-8858417E3807}"/>
+    <hyperlink ref="B48" r:id="rId335" display="https://www.worldometers.info/coronavirus/country/panama/" xr:uid="{739C77BF-B1B9-4817-9EF1-59656EC441F1}"/>
+    <hyperlink ref="N47" r:id="rId336" display="https://www.worldometers.info/world-population/afghanistan-population/" xr:uid="{3AA25B68-3033-4510-8091-9AB3FFDC92AC}"/>
+    <hyperlink ref="B47" r:id="rId337" display="https://www.worldometers.info/coronavirus/country/afghanistan/" xr:uid="{5FEDA117-653D-42CF-963E-F997174DCD4D}"/>
+    <hyperlink ref="N46" r:id="rId338" display="https://www.worldometers.info/world-population/argentina-population/" xr:uid="{AD83A7A6-70EF-498B-9195-78F69B9A4B40}"/>
+    <hyperlink ref="B46" r:id="rId339" display="https://www.worldometers.info/coronavirus/country/argentina/" xr:uid="{26435684-1413-4CD2-B9DE-9EAAF4F0C792}"/>
+    <hyperlink ref="N45" r:id="rId340" display="https://www.worldometers.info/world-population/dominican-republic-population/" xr:uid="{BC134283-58B2-42AB-B768-B6C106F39BB4}"/>
+    <hyperlink ref="B45" r:id="rId341" display="https://www.worldometers.info/coronavirus/country/dominican-republic/" xr:uid="{4DF3CDF5-3D54-4924-B663-DAD114BF4B53}"/>
+    <hyperlink ref="N44" r:id="rId342" display="https://www.worldometers.info/world-population/philippines-population/" xr:uid="{7298071C-A594-4C59-835C-84020960524C}"/>
+    <hyperlink ref="B44" r:id="rId343" display="https://www.worldometers.info/coronavirus/country/philippines/" xr:uid="{47EE64F8-817D-403D-9C60-02E980C8A358}"/>
+    <hyperlink ref="N43" r:id="rId344" display="https://www.worldometers.info/world-population/austria-population/" xr:uid="{7F3B1E06-7F0A-478C-B202-C18FC7A83C05}"/>
+    <hyperlink ref="B43" r:id="rId345" display="https://www.worldometers.info/coronavirus/country/austria/" xr:uid="{8999618A-B83D-4F0E-A175-B18FC050FB1D}"/>
+    <hyperlink ref="N42" r:id="rId346" display="https://www.worldometers.info/world-population/japan-population/" xr:uid="{78C49B8D-919E-4182-ADC4-99FF1C709A64}"/>
+    <hyperlink ref="B42" r:id="rId347" display="https://www.worldometers.info/coronavirus/country/japan/" xr:uid="{65BA092D-E2D7-452C-97B9-F061176837BB}"/>
+    <hyperlink ref="B41" r:id="rId348" display="https://www.worldometers.info/coronavirus/country/israel/" xr:uid="{DBEB8EB6-6487-47DF-948D-2240672AFDE5}"/>
+    <hyperlink ref="N40" r:id="rId349" display="https://www.worldometers.info/world-population/romania-population/" xr:uid="{8E71935B-0081-4054-A565-CB0344E31622}"/>
+    <hyperlink ref="B40" r:id="rId350" display="https://www.worldometers.info/coronavirus/country/romania/" xr:uid="{7EC35508-DF30-41B4-9396-BE85B62652BD}"/>
+    <hyperlink ref="N39" r:id="rId351" display="https://www.worldometers.info/world-population/egypt-population/" xr:uid="{44DE24E5-59FA-4F0A-B434-DDFEA187CD7A}"/>
+    <hyperlink ref="B39" r:id="rId352" display="https://www.worldometers.info/coronavirus/country/egypt/" xr:uid="{435FF4E1-4390-4071-B2E1-A2F0505EA089}"/>
+    <hyperlink ref="N38" r:id="rId353" display="https://www.worldometers.info/world-population/ukraine-population/" xr:uid="{178828CE-58E9-49CB-A34A-CC025C5F11B2}"/>
+    <hyperlink ref="B38" r:id="rId354" display="https://www.worldometers.info/coronavirus/country/ukraine/" xr:uid="{46371482-1C68-4D9D-9686-5CA1A9D77C5E}"/>
+    <hyperlink ref="N37" r:id="rId355" display="https://www.worldometers.info/world-population/poland-population/" xr:uid="{8713C484-4706-44AF-8920-3F13AA7373FC}"/>
+    <hyperlink ref="B37" r:id="rId356" display="https://www.worldometers.info/coronavirus/country/poland/" xr:uid="{3D8C65CC-98BD-453A-B4EE-24A6C02ACB47}"/>
+    <hyperlink ref="N36" r:id="rId357" display="https://www.worldometers.info/world-population/ireland-population/" xr:uid="{6C054A0A-545C-4C5A-AFBA-D6D07CEBE5CB}"/>
+    <hyperlink ref="B36" r:id="rId358" display="https://www.worldometers.info/coronavirus/country/ireland/" xr:uid="{D43B9A07-852A-44D6-B2D0-7BE94665B009}"/>
+    <hyperlink ref="N35" r:id="rId359" display="https://www.worldometers.info/world-population/indonesia-population/" xr:uid="{3C37C578-7C40-49C7-B043-470E8859941B}"/>
+    <hyperlink ref="B35" r:id="rId360" display="https://www.worldometers.info/coronavirus/country/indonesia/" xr:uid="{A3D0D005-A61A-4164-93FB-2FF34CDF5DE1}"/>
+    <hyperlink ref="N34" r:id="rId361" display="https://www.worldometers.info/world-population/kuwait-population/" xr:uid="{900F862F-EA3F-46EB-A4BB-8AA369A40F5C}"/>
+    <hyperlink ref="B34" r:id="rId362" display="https://www.worldometers.info/coronavirus/country/kuwait/" xr:uid="{4AC6D421-8B89-4C9F-9A93-AA3CDD447D1C}"/>
+    <hyperlink ref="N33" r:id="rId363" display="https://www.worldometers.info/world-population/colombia-population/" xr:uid="{EF82D7FF-2384-4098-AE82-9CA840775332}"/>
+    <hyperlink ref="B33" r:id="rId364" display="https://www.worldometers.info/coronavirus/country/colombia/" xr:uid="{175CE45B-1A7F-48C5-B21A-9A6928F56718}"/>
+    <hyperlink ref="N32" r:id="rId365" display="https://www.worldometers.info/world-population/south-africa-population/" xr:uid="{93201C92-C65A-4730-AAF5-67BDB43F9B4C}"/>
+    <hyperlink ref="B32" r:id="rId366" display="https://www.worldometers.info/coronavirus/country/south-africa/" xr:uid="{076F0643-3AC8-4A8F-AFF3-64F21D8240DF}"/>
+    <hyperlink ref="N31" r:id="rId367" display="https://www.worldometers.info/world-population/switzerland-population/" xr:uid="{D5ADC42A-1BE4-4267-88C6-EA79AB974782}"/>
+    <hyperlink ref="B31" r:id="rId368" display="https://www.worldometers.info/coronavirus/country/switzerland/" xr:uid="{BC4BF5B9-F688-4495-9859-EF1EA8F91CE1}"/>
+    <hyperlink ref="N30" r:id="rId369" display="https://www.worldometers.info/world-population/portugal-population/" xr:uid="{86BB524E-1459-4215-8BE9-FE51C343AE71}"/>
+    <hyperlink ref="B30" r:id="rId370" display="https://www.worldometers.info/coronavirus/country/portugal/" xr:uid="{F9B3C850-5719-4881-9142-A9FACD803057}"/>
+    <hyperlink ref="N29" r:id="rId371" display="https://www.worldometers.info/world-population/united-arab-emirates-population/" xr:uid="{FF1FC31D-6FF1-4CFC-AE0D-3DA4BFBAF58D}"/>
+    <hyperlink ref="B29" r:id="rId372" display="https://www.worldometers.info/coronavirus/country/united-arab-emirates/" xr:uid="{4CD1A5BA-75DC-4D8C-83E1-4FB2F81378F6}"/>
+    <hyperlink ref="N28" r:id="rId373" display="https://www.worldometers.info/world-population/singapore-population/" xr:uid="{B8B12521-192A-4D27-BBC5-6C53D493C24E}"/>
+    <hyperlink ref="B28" r:id="rId374" display="https://www.worldometers.info/coronavirus/country/singapore/" xr:uid="{35126A26-E552-4DBA-A064-559A97856D36}"/>
+    <hyperlink ref="N27" r:id="rId375" display="https://www.worldometers.info/world-population/sweden-population/" xr:uid="{8A4CE06F-FDC7-4FA9-9CB8-DEEBD4FC99E4}"/>
+    <hyperlink ref="B27" r:id="rId376" display="https://www.worldometers.info/coronavirus/country/sweden/" xr:uid="{EB54A5ED-00A7-4205-AFC5-081139009037}"/>
+    <hyperlink ref="N26" r:id="rId377" display="https://www.worldometers.info/world-population/ecuador-population/" xr:uid="{0E82A731-FFD4-4E11-A840-D17CC944F11F}"/>
+    <hyperlink ref="B26" r:id="rId378" display="https://www.worldometers.info/coronavirus/country/ecuador/" xr:uid="{98A663EE-24F0-4F70-BA36-9E5B79907083}"/>
+    <hyperlink ref="N25" r:id="rId379" display="https://www.worldometers.info/world-population/belarus-population/" xr:uid="{35DA7F74-368C-4E16-83C7-B65BC7096EE1}"/>
+    <hyperlink ref="B25" r:id="rId380" display="https://www.worldometers.info/coronavirus/country/belarus/" xr:uid="{E4F087BC-83CC-40E9-B6F1-F6E2EFF54486}"/>
+    <hyperlink ref="N24" r:id="rId381" display="https://www.worldometers.info/world-population/bangladesh-population/" xr:uid="{3C7ABFAA-CBEF-4147-B8D0-94D4377EDDF0}"/>
+    <hyperlink ref="B24" r:id="rId382" display="https://www.worldometers.info/coronavirus/country/bangladesh/" xr:uid="{D5445A7D-A97A-4C78-9DAE-54E0ACE97B3C}"/>
+    <hyperlink ref="N23" r:id="rId383" display="https://www.worldometers.info/world-population/netherlands-population/" xr:uid="{DCC4303D-35D6-4694-835B-7D24BB6DAD61}"/>
+    <hyperlink ref="B23" r:id="rId384" display="https://www.worldometers.info/coronavirus/country/netherlands/" xr:uid="{9D6D3B7E-5384-4956-AA0E-415D6A44C47F}"/>
+    <hyperlink ref="N22" r:id="rId385" display="https://www.worldometers.info/world-population/qatar-population/" xr:uid="{8426445C-05F0-4C5B-936E-CE71CBEB888B}"/>
+    <hyperlink ref="B22" r:id="rId386" display="https://www.worldometers.info/coronavirus/country/qatar/" xr:uid="{F76BB22B-5FA8-4291-A1A1-B819887A79DC}"/>
+    <hyperlink ref="N21" r:id="rId387" display="https://www.worldometers.info/world-population/belgium-population/" xr:uid="{9951A35D-E2BD-41B8-825F-7D79BAB2AF31}"/>
+    <hyperlink ref="B21" r:id="rId388" display="https://www.worldometers.info/coronavirus/country/belgium/" xr:uid="{0FC814D5-04E8-47A6-86BA-78B08719DAB0}"/>
+    <hyperlink ref="N20" r:id="rId389" display="https://www.worldometers.info/world-population/pakistan-population/" xr:uid="{8F80DCE6-E3BB-4F54-A424-772FBCD2215F}"/>
+    <hyperlink ref="B20" r:id="rId390" display="https://www.worldometers.info/coronavirus/country/pakistan/" xr:uid="{40466E33-FA66-4596-9292-2F8225F75D92}"/>
+    <hyperlink ref="N19" r:id="rId391" display="https://www.worldometers.info/world-population/saudi-arabia-population/" xr:uid="{F17C420D-2957-40AC-8BFE-234A31152106}"/>
+    <hyperlink ref="B19" r:id="rId392" display="https://www.worldometers.info/coronavirus/country/saudi-arabia/" xr:uid="{EF97E617-DB04-4BD7-A96B-76ED7013AAE6}"/>
+    <hyperlink ref="B18" r:id="rId393" display="https://www.worldometers.info/coronavirus/country/china/" xr:uid="{6823D427-AC4E-4199-8A05-1EC72F03BA5A}"/>
+    <hyperlink ref="N17" r:id="rId394" display="https://www.worldometers.info/world-population/mexico-population/" xr:uid="{DEB69BE4-AE30-4223-A1BD-0A963F1690D5}"/>
+    <hyperlink ref="B17" r:id="rId395" display="https://www.worldometers.info/coronavirus/country/mexico/" xr:uid="{DC5551E4-1183-4A38-88BD-A97390BA7DD8}"/>
+    <hyperlink ref="N16" r:id="rId396" display="https://www.worldometers.info/world-population/canada-population/" xr:uid="{7709CCEE-4C2A-4F94-9327-FFB15E9D936D}"/>
+    <hyperlink ref="B16" r:id="rId397" display="https://www.worldometers.info/coronavirus/country/canada/" xr:uid="{7DC83DBF-E300-4D02-AECD-6B6D7443F00E}"/>
+    <hyperlink ref="N15" r:id="rId398" display="https://www.worldometers.info/world-population/chile-population/" xr:uid="{8AF44D23-163F-430A-8E28-ABF939FF06D3}"/>
+    <hyperlink ref="B15" r:id="rId399" display="https://www.worldometers.info/coronavirus/country/chile/" xr:uid="{2A7044B1-8C0A-456F-A2E3-058395088F2C}"/>
+    <hyperlink ref="N14" r:id="rId400" display="https://www.worldometers.info/world-population/peru-population/" xr:uid="{A4F30A37-1869-4D9D-88E4-611E3FD830C2}"/>
+    <hyperlink ref="B14" r:id="rId401" display="https://www.worldometers.info/coronavirus/country/peru/" xr:uid="{31E3437C-8090-4834-9C25-797BB8D615CE}"/>
+    <hyperlink ref="N13" r:id="rId402" display="https://www.worldometers.info/world-population/iran-population/" xr:uid="{3631C845-5E78-43D6-8C6D-5037E54B815E}"/>
+    <hyperlink ref="B13" r:id="rId403" display="https://www.worldometers.info/coronavirus/country/iran/" xr:uid="{BC324BD0-E423-4CB0-B817-B95610FC5258}"/>
+    <hyperlink ref="N12" r:id="rId404" display="https://www.worldometers.info/world-population/turkey-population/" xr:uid="{26DEFD04-AA0D-41E1-A24E-853CB89BE27E}"/>
+    <hyperlink ref="B12" r:id="rId405" display="https://www.worldometers.info/coronavirus/country/turkey/" xr:uid="{7EAF6E66-7911-46CB-8199-EE5EC3BEAD63}"/>
+    <hyperlink ref="N11" r:id="rId406" display="https://www.worldometers.info/world-population/india-population/" xr:uid="{C4860DF2-841E-4CB6-BE8F-0B470EAFB151}"/>
+    <hyperlink ref="B11" r:id="rId407" display="https://www.worldometers.info/coronavirus/country/india/" xr:uid="{86E991F3-F5F2-41E0-885D-779977358001}"/>
+    <hyperlink ref="N10" r:id="rId408" display="https://www.worldometers.info/world-population/germany-population/" xr:uid="{089A225D-D054-450C-857E-6DF91DBF19D5}"/>
+    <hyperlink ref="B10" r:id="rId409" display="https://www.worldometers.info/coronavirus/country/germany/" xr:uid="{44CB0276-9B29-4650-A8AD-9B508AE6AF16}"/>
+    <hyperlink ref="N9" r:id="rId410" display="https://www.worldometers.info/world-population/france-population/" xr:uid="{31074F3A-A206-4B5C-B692-44847CB2B6F3}"/>
+    <hyperlink ref="B9" r:id="rId411" display="https://www.worldometers.info/coronavirus/country/france/" xr:uid="{A2C0EC90-1445-4612-8D03-53D90352461D}"/>
+    <hyperlink ref="N8" r:id="rId412" display="https://www.worldometers.info/world-population/italy-population/" xr:uid="{F303976C-BE67-4471-8918-D90B6AFDC3D3}"/>
+    <hyperlink ref="B8" r:id="rId413" display="https://www.worldometers.info/coronavirus/country/italy/" xr:uid="{A7B50739-AAB3-4CFD-99D9-946C2588E5E2}"/>
+    <hyperlink ref="N7" r:id="rId414" display="https://www.worldometers.info/world-population/uk-population/" xr:uid="{52357C3D-E0DA-46CE-A84B-14CBF3742A7B}"/>
+    <hyperlink ref="B7" r:id="rId415" display="https://www.worldometers.info/coronavirus/country/uk/" xr:uid="{1858BD0B-79C2-4F9F-8A1E-C8130C6EE5FE}"/>
+    <hyperlink ref="N6" r:id="rId416" display="https://www.worldometers.info/world-population/spain-population/" xr:uid="{1930B750-2367-4D8B-A821-45BADEA40CE4}"/>
+    <hyperlink ref="B6" r:id="rId417" display="https://www.worldometers.info/coronavirus/country/spain/" xr:uid="{9BF3C11A-E6C9-486E-ACED-2C967D2DF541}"/>
+    <hyperlink ref="N5" r:id="rId418" display="https://www.worldometers.info/world-population/russia-population/" xr:uid="{224C4CD8-875B-4827-A1EC-AA3019725D38}"/>
+    <hyperlink ref="B5" r:id="rId419" display="https://www.worldometers.info/coronavirus/country/russia/" xr:uid="{C89C0276-4B22-4905-8AEF-21A3D68F2ADC}"/>
+    <hyperlink ref="N4" r:id="rId420" display="https://www.worldometers.info/world-population/brazil-population/" xr:uid="{24CC074A-5AD9-4768-8EC3-791097A5162E}"/>
+    <hyperlink ref="B4" r:id="rId421" display="https://www.worldometers.info/coronavirus/country/brazil/" xr:uid="{4173FC55-DB30-4D39-84CE-5AB5E3027E2D}"/>
+    <hyperlink ref="N3" r:id="rId422" display="https://www.worldometers.info/world-population/us-population/" xr:uid="{6743DA0E-9FFD-47B4-B031-ED3FEDDAA1C8}"/>
+    <hyperlink ref="B3" r:id="rId423" display="https://www.worldometers.info/coronavirus/country/us/" xr:uid="{4EE8DEA5-99A5-4FDB-8235-57B84BFCB488}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId424"/>
